--- a/tests/test1/d40/N, 0.2.xlsx
+++ b/tests/test1/d40/N, 0.2.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003341000000034455</v>
+        <v>0.0003291999999994744</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0003024000000024785</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003159000000039214</v>
+        <v>0.000770400000000393</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0002927000000028102</v>
+        <v>0.0003144000000006031</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003278000000008774</v>
+        <v>0.0002947999999989293</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003118999999998096</v>
+        <v>0.000330600000001624</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003005000000015912</v>
+        <v>0.0003096000000013532</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.000282699999999636</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0006661000000036665</v>
+        <v>0.0002861000000002889</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003033999999999537</v>
+        <v>0.0003420999999974583</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0004527999999979215</v>
+        <v>0.0002845999999969706</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003200000000020964</v>
+        <v>0.0003068999999982225</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003224000000017213</v>
+        <v>0.0006523999999998864</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0007726999999988493</v>
+        <v>0.0003309000000015772</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0007328000000015322</v>
+        <v>0.0002843000000005702</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0005068000000036932</v>
+        <v>0.0002817999999997767</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003371000000029767</v>
+        <v>0.0003232999999980279</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.000328699999997184</v>
+        <v>0.0002968999999986011</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003227999999992903</v>
+        <v>0.0002934000000003323</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003204999999937286</v>
+        <v>0.0007100000000015427</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0004972999999992567</v>
+        <v>0.0003109999999999502</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003300000000052705</v>
+        <v>0.0002946000000001447</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003334999999964339</v>
+        <v>0.0002816000000009922</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.000312700000002053</v>
+        <v>0.0003239999999991028</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002989999999982729</v>
+        <v>0.0002986999999983198</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003321000000013896</v>
+        <v>0.0002944999999989761</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003284000000007836</v>
+        <v>0.0003200999999997123</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003018000000025722</v>
+        <v>0.0003819000000007122</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003179000000059773</v>
+        <v>0.0002896999999997263</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002899999999996794</v>
+        <v>0.0007052999999999088</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0003127999999996689</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0005888999999967837</v>
+        <v>0.0002896999999997263</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003256999999976529</v>
+        <v>0.0002886000000010824</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.0003060999999995317</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003042000000021972</v>
+        <v>0.0002850999999992609</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003377999999969461</v>
+        <v>0.0002853000000015982</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0002939000000026226</v>
+        <v>0.0003193000000010215</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003061999999971476</v>
+        <v>0.0002916000000006136</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003192999999939161</v>
+        <v>0.0002881000000023448</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0002921999999969671</v>
+        <v>0.001344800000001811</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003169999999954598</v>
+        <v>0.0005509000000003539</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003180999999941037</v>
+        <v>0.0003242999999990559</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002955000000000041</v>
+        <v>0.0004559999999997899</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003111999999987347</v>
+        <v>0.0004861999999974387</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.001171399999996936</v>
+        <v>0.0003063999999994849</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003179000000059773</v>
+        <v>0.000320500000000834</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002975999999961232</v>
+        <v>0.0005147000000000901</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002964999999974793</v>
+        <v>0.0007102000000003272</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003158999999968159</v>
+        <v>0.0003108000000011657</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0002983999999983666</v>
+        <v>0.0003621000000002539</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003077999999945291</v>
+        <v>0.0002988000000030411</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003297000000017647</v>
+        <v>0.0002908999999995387</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002910000000042601</v>
+        <v>0.0002981999999995821</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003106999999999971</v>
+        <v>0.0003162000000003218</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.000415799999998967</v>
+        <v>0.0002950000000012665</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003079000000028032</v>
+        <v>0.0002949000000000979</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002916999999982295</v>
+        <v>0.0005071000000000936</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003118000000057464</v>
+        <v>0.0002977000000008445</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.0002929999999992106</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003057999999995786</v>
+        <v>0.0003184000000011622</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.000297899999999629</v>
+        <v>0.0002902999999996325</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003186999999940099</v>
+        <v>0.0002960000000022944</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.000306099999995979</v>
+        <v>0.0004564000000009116</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002962999999951421</v>
+        <v>0.0003121999999997627</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003077999999945291</v>
+        <v>0.0002827999999972519</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003114000000010719</v>
+        <v>0.0002855000000003827</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002981999999960294</v>
+        <v>0.0003177000000000874</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002925999999945361</v>
+        <v>0.0002949000000000979</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003141000000042027</v>
+        <v>0.0002922000000005198</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003006000000027598</v>
+        <v>0.0003205999999984499</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003068000000041593</v>
+        <v>0.0002937000000002854</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003832999999957565</v>
+        <v>0.0002890000000022042</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003777999999954318</v>
+        <v>0.0003881999999997277</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003157999999956473</v>
+        <v>0.0003147000000005562</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0007914000000042165</v>
+        <v>0.0002944999999989761</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003123999999985472</v>
+        <v>0.0002898999999985108</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003018999999966354</v>
+        <v>0.0003179000000024246</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.000290100000000848</v>
+        <v>0.0002928999999980419</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003124000000056526</v>
+        <v>0.0002920999999993512</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002913999999947237</v>
+        <v>0.0005591999999978725</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003039000000057968</v>
+        <v>0.0002922000000005198</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0005055999999967753</v>
+        <v>0.0002832999999995423</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.000408399999997755</v>
+        <v>0.0002910999999983233</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.002072499999997035</v>
+        <v>0.0003185000000023308</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003503000000009138</v>
+        <v>0.0003050000000008879</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003349999999997522</v>
+        <v>0.0002945000000025289</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003341000000034455</v>
+        <v>0.0005409000000007325</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003552000000013322</v>
+        <v>0.0003008999999991602</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.001233999999996627</v>
+        <v>0.0002896999999997263</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0005389999999962924</v>
+        <v>0.0002886999999986983</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.000785200000002817</v>
+        <v>0.000325999999997606</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003384000000039578</v>
+        <v>0.000295200000000051</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003071000000005597</v>
+        <v>0.0003074999999981287</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003055999999972414</v>
+        <v>0.000303900000002244</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003285000000019522</v>
+        <v>0.0002807000000011328</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003141999999982659</v>
+        <v>0.0002896999999997263</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003024000000024785</v>
+        <v>0.0003071000000005597</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003289000000066267</v>
+        <v>0.0003148000000017248</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003229000000004589</v>
+        <v>0.0002961999999975262</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003062999999983163</v>
+        <v>0.0002888999999974828</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d40/N, 0.2.xlsx
+++ b/tests/test1/d40/N, 0.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003291999999994744</v>
+        <v>0.000370599999996557</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003024000000024785</v>
+        <v>0.0002955999999869618</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.000770400000000393</v>
+        <v>0.000313099999999622</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003144000000006031</v>
+        <v>0.0003308999999944717</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0002947999999989293</v>
+        <v>0.0002988999999899988</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.000330600000001624</v>
+        <v>0.0004327000000046155</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003096000000013532</v>
+        <v>0.0003942000000165535</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.000282699999999636</v>
+        <v>0.0004025000000069667</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0002861000000002889</v>
+        <v>0.0003130000000055588</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003420999999974583</v>
+        <v>0.0003337999999928343</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0002845999999969706</v>
+        <v>0.0003483000000130687</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.0003020999999989726</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0006523999999998864</v>
+        <v>0.0003352999999890471</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003309000000015772</v>
+        <v>0.0008817000000078679</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0002843000000005702</v>
+        <v>0.001035900000005086</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0002817999999997767</v>
+        <v>0.0003931999999906566</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003232999999980279</v>
+        <v>0.0003319999999860102</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0002968999999986011</v>
+        <v>0.0003547000000025946</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0002934000000003323</v>
+        <v>0.0003616999999849213</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0007100000000015427</v>
+        <v>0.0003317999999978838</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003109999999999502</v>
+        <v>0.0004945000000020627</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002946000000001447</v>
+        <v>0.0003941999999881318</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002816000000009922</v>
+        <v>0.0003432999999972708</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003239999999991028</v>
+        <v>0.0003154999999992469</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002986999999983198</v>
+        <v>0.0003068999999982225</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002944999999989761</v>
+        <v>0.002011299999992389</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003200999999997123</v>
+        <v>0.0003315999999813357</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003819000000007122</v>
+        <v>0.0002968000000009852</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002896999999997263</v>
+        <v>0.002500200000014274</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0007052999999999088</v>
+        <v>0.0003341000000034455</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003127999999996689</v>
+        <v>0.0002986000000078093</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002896999999997263</v>
+        <v>0.0003349999999784359</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002886000000010824</v>
+        <v>0.0003193999999950847</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003060999999995317</v>
+        <v>0.0003139000000089709</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002850999999992609</v>
+        <v>0.0003105000000118707</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002853000000015982</v>
+        <v>0.0003398000000061074</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.0003095000000143955</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002916000000006136</v>
+        <v>0.000358199999993758</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002881000000023448</v>
+        <v>0.0003323000000250431</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.001344800000001811</v>
+        <v>0.0003086999999766249</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0005509000000003539</v>
+        <v>0.0003166999999848485</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003242999999990559</v>
+        <v>0.0006115999999849464</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0004559999999997899</v>
+        <v>0.0003322999999966214</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0004861999999974387</v>
+        <v>0.000296700000006922</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003063999999994849</v>
+        <v>0.0003255000000024211</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.000320500000000834</v>
+        <v>0.0003356999999937216</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0005147000000000901</v>
+        <v>0.0003611000000205422</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0007102000000003272</v>
+        <v>0.0003147999999839612</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003108000000011657</v>
+        <v>0.0003296000000148069</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003621000000002539</v>
+        <v>0.000294999999994161</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002988000000030411</v>
+        <v>0.0003425000000163436</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0002908999999995387</v>
+        <v>0.0003341000000034455</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0002981999999995821</v>
+        <v>0.000291800000013609</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003162000000003218</v>
+        <v>0.0003352999999890471</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002950000000012665</v>
+        <v>0.0005176999999889631</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0003045999999926607</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0005071000000000936</v>
+        <v>0.0002996999999993477</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002977000000008445</v>
+        <v>0.0003254000000083579</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002929999999992106</v>
+        <v>0.0003512000000114313</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003184000000011622</v>
+        <v>0.0003174999999941974</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002902999999996325</v>
+        <v>0.0003202000000044336</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002960000000022944</v>
+        <v>0.000323900000012145</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0004564000000009116</v>
+        <v>0.0003247999999871354</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003121999999997627</v>
+        <v>0.0003116999999974723</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002827999999972519</v>
+        <v>0.0004018999999857442</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002855000000003827</v>
+        <v>0.0003123999999843363</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003177000000000874</v>
+        <v>0.0002985000000137461</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002949000000000979</v>
+        <v>0.0003076999999791497</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002922000000005198</v>
+        <v>0.0003344000000140568</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003205999999984499</v>
+        <v>0.0003051000000198201</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0002937000000002854</v>
+        <v>0.000297399999993786</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0002890000000022042</v>
+        <v>0.0003901999999982309</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003881999999997277</v>
+        <v>0.000309799999996585</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003147000000005562</v>
+        <v>0.0003111000000046715</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002944999999989761</v>
+        <v>0.0003080999999838241</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002898999999985108</v>
+        <v>0.0003187999999738622</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003179000000024246</v>
+        <v>0.0003098000000250067</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002928999999980419</v>
+        <v>0.0003256999999905474</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002920999999993512</v>
+        <v>0.0003297000000088701</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0005591999999978725</v>
+        <v>0.0003119999999796619</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002922000000005198</v>
+        <v>0.0003510999999889464</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0002832999999995423</v>
+        <v>0.0006756999999879554</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002910999999983233</v>
+        <v>0.0003083000000003722</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003185000000023308</v>
+        <v>0.0002958000000035099</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003050000000008879</v>
+        <v>0.0003198999999938223</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002945000000025289</v>
+        <v>0.0003317000000038206</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0005409000000007325</v>
+        <v>0.000303300000012996</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003008999999991602</v>
+        <v>0.0002990000000124837</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002896999999997263</v>
+        <v>0.00033450000000812</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002886999999986983</v>
+        <v>0.0002959999999916363</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.000325999999997606</v>
+        <v>0.0003102000000012595</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.000295200000000051</v>
+        <v>0.0008541999999920336</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003074999999981287</v>
+        <v>0.0003192000000069584</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.000303900000002244</v>
+        <v>0.0003114000000152828</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002807000000011328</v>
+        <v>0.0003150999999945725</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002896999999997263</v>
+        <v>0.0003310000000169566</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003071000000005597</v>
+        <v>0.0002999999999815373</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003148000000017248</v>
+        <v>0.000303300000012996</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002961999999975262</v>
+        <v>0.0003317999999978838</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002888999999974828</v>
+        <v>0.000294799999977613</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d40/N, 0.2.xlsx
+++ b/tests/test1/d40/N, 0.2.xlsx
@@ -532,13 +532,13 @@
         <v>359.6471895308065</v>
       </c>
       <c r="F2" t="n">
-        <v>38.72366506726779</v>
+        <v>38.72366506727444</v>
       </c>
       <c r="G2" t="n">
-        <v>91.1495121751319</v>
+        <v>91.1495121751316</v>
       </c>
       <c r="H2" t="n">
-        <v>11.80407109507384</v>
+        <v>11.80407109507641</v>
       </c>
       <c r="I2" t="n">
         <v>22.91574594830793</v>
@@ -547,16 +547,16 @@
         <v>38.28184535070894</v>
       </c>
       <c r="K2" t="n">
-        <v>22.84849555301643</v>
+        <v>22.84849555301676</v>
       </c>
       <c r="L2" t="n">
-        <v>38.87254138390631</v>
+        <v>38.87254138391364</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05290629503702514</v>
+        <v>0.05290629503700616</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2813271481184973</v>
+        <v>0.2813271481192944</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.000370599999996557</v>
+        <v>0.000248999999996613</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.6751309272673</v>
       </c>
       <c r="F3" t="n">
-        <v>37.34979409414515</v>
+        <v>37.34979409414347</v>
       </c>
       <c r="G3" t="n">
-        <v>68.37772863390927</v>
+        <v>68.37772863390978</v>
       </c>
       <c r="H3" t="n">
-        <v>11.86159666805862</v>
+        <v>11.86159666805784</v>
       </c>
       <c r="I3" t="n">
         <v>19.69542397878576</v>
@@ -599,16 +599,16 @@
         <v>43.53167591109425</v>
       </c>
       <c r="K3" t="n">
-        <v>19.54342908781391</v>
+        <v>19.54342908781383</v>
       </c>
       <c r="L3" t="n">
-        <v>42.42182686301616</v>
+        <v>42.42182686301386</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0540274187543237</v>
+        <v>0.05402741875432934</v>
       </c>
       <c r="N3" t="n">
-        <v>0.294388364458399</v>
+        <v>0.2943883644583277</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0002955999999869618</v>
+        <v>0.0001971999999952345</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.08335156948109022</v>
       </c>
       <c r="F4" t="n">
-        <v>38.13557716591849</v>
+        <v>38.13557716591905</v>
       </c>
       <c r="G4" t="n">
-        <v>117.4109408652378</v>
+        <v>117.4109408652335</v>
       </c>
       <c r="H4" t="n">
-        <v>2.996671189530929</v>
+        <v>2.996671189530931</v>
       </c>
       <c r="I4" t="n">
         <v>7.555476939874645</v>
@@ -651,16 +651,16 @@
         <v>38.51157200784191</v>
       </c>
       <c r="K4" t="n">
-        <v>7.433409115511005</v>
+        <v>7.433409115511044</v>
       </c>
       <c r="L4" t="n">
-        <v>34.15068984806393</v>
+        <v>34.15068984806474</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04582498668794921</v>
+        <v>0.04582498668794733</v>
       </c>
       <c r="N4" t="n">
-        <v>1.429954670720701</v>
+        <v>1.429954670720551</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.000313099999999622</v>
+        <v>0.0001973999999975717</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.6422743053139</v>
       </c>
       <c r="F5" t="n">
-        <v>37.93683983872024</v>
+        <v>37.93683983871381</v>
       </c>
       <c r="G5" t="n">
-        <v>91.34502151654279</v>
+        <v>91.34502151654554</v>
       </c>
       <c r="H5" t="n">
-        <v>11.39778114890877</v>
+        <v>11.39778114890615</v>
       </c>
       <c r="I5" t="n">
         <v>22.79928386085001</v>
@@ -703,16 +703,16 @@
         <v>38.17369412214205</v>
       </c>
       <c r="K5" t="n">
-        <v>22.65386207658186</v>
+        <v>22.65386207658161</v>
       </c>
       <c r="L5" t="n">
-        <v>37.924631746694</v>
+        <v>37.92463174668632</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06191063339267477</v>
+        <v>0.06191063339269737</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2639363108697517</v>
+        <v>0.2639363108706513</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003308999999944717</v>
+        <v>0.0001909000000068772</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9898876585714</v>
       </c>
       <c r="F6" t="n">
-        <v>38.62707940830761</v>
+        <v>38.62707940830734</v>
       </c>
       <c r="G6" t="n">
-        <v>175.1997374473377</v>
+        <v>175.1997374473375</v>
       </c>
       <c r="H6" t="n">
-        <v>9.745210689690589</v>
+        <v>9.745210689690222</v>
       </c>
       <c r="I6" t="n">
         <v>5.187802718568502</v>
@@ -758,13 +758,13 @@
         <v>5.026229612568438</v>
       </c>
       <c r="L6" t="n">
-        <v>24.45150488536241</v>
+        <v>24.45150488536259</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03968004662253559</v>
+        <v>0.03968004662253587</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2189584645618738</v>
+        <v>0.21895846456176</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0002988999999899988</v>
+        <v>0.0001836999999937916</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.911754502623</v>
       </c>
       <c r="F7" t="n">
-        <v>37.24648316258962</v>
+        <v>37.24648316259216</v>
       </c>
       <c r="G7" t="n">
-        <v>38.91561526466849</v>
+        <v>38.91561526466786</v>
       </c>
       <c r="H7" t="n">
-        <v>12.71535498384892</v>
+        <v>12.71535498385047</v>
       </c>
       <c r="I7" t="n">
         <v>13.05313401373524</v>
@@ -807,16 +807,16 @@
         <v>51.07363174201134</v>
       </c>
       <c r="K7" t="n">
-        <v>12.95573558220344</v>
+        <v>12.95573558220355</v>
       </c>
       <c r="L7" t="n">
-        <v>47.71693330912476</v>
+        <v>47.71693330912897</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04261019839569097</v>
+        <v>0.04261019839568402</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2963044448130875</v>
+        <v>0.2963044448126496</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0004327000000046155</v>
+        <v>0.0002441000000033</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.0623567346975076</v>
       </c>
       <c r="F8" t="n">
-        <v>38.31500846272148</v>
+        <v>38.31500846272133</v>
       </c>
       <c r="G8" t="n">
-        <v>166.485854756285</v>
+        <v>166.4858547562844</v>
       </c>
       <c r="H8" t="n">
-        <v>7.987376456697145</v>
+        <v>7.987376456696876</v>
       </c>
       <c r="I8" t="n">
         <v>7.610879869883244</v>
@@ -859,16 +859,16 @@
         <v>29.73534467829719</v>
       </c>
       <c r="K8" t="n">
-        <v>7.455399542526481</v>
+        <v>7.455399542526468</v>
       </c>
       <c r="L8" t="n">
-        <v>26.60406077163836</v>
+        <v>26.60406077163856</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03966658271838292</v>
+        <v>0.03966658271838307</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7179232021880755</v>
+        <v>0.7179232021879525</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003942000000165535</v>
+        <v>0.0001920999999995843</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.66189485924</v>
       </c>
       <c r="F9" t="n">
-        <v>33.86638365027513</v>
+        <v>33.86638365027419</v>
       </c>
       <c r="G9" t="n">
-        <v>10.19674595253888</v>
+        <v>10.19674595253892</v>
       </c>
       <c r="H9" t="n">
-        <v>16.64784839780706</v>
+        <v>16.64784839780566</v>
       </c>
       <c r="I9" t="n">
         <v>5.176513718887975</v>
@@ -911,16 +911,16 @@
         <v>52.00243301911608</v>
       </c>
       <c r="K9" t="n">
-        <v>5.059214830485624</v>
+        <v>5.059214830485574</v>
       </c>
       <c r="L9" t="n">
-        <v>51.11044115809498</v>
+        <v>51.11044115809236</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05507545212617398</v>
+        <v>0.05507545212617886</v>
       </c>
       <c r="N9" t="n">
-        <v>1.01393027848628</v>
+        <v>1.013930278486085</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0004025000000069667</v>
+        <v>0.0001997999999971967</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.981759056676</v>
       </c>
       <c r="F10" t="n">
-        <v>38.10860572508578</v>
+        <v>38.10860572508574</v>
       </c>
       <c r="G10" t="n">
-        <v>157.7270701560359</v>
+        <v>157.7270701560356</v>
       </c>
       <c r="H10" t="n">
-        <v>13.89232712430343</v>
+        <v>13.89232712430329</v>
       </c>
       <c r="I10" t="n">
         <v>20.58725291436772</v>
@@ -963,16 +963,16 @@
         <v>22.65229206771021</v>
       </c>
       <c r="K10" t="n">
-        <v>20.43676562014646</v>
+        <v>20.4367656201464</v>
       </c>
       <c r="L10" t="n">
-        <v>21.41305273405452</v>
+        <v>21.41305273405467</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04728653696455691</v>
+        <v>0.04728653696455722</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2663798862320551</v>
+        <v>0.2663798862320739</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003130000000055588</v>
+        <v>0.0001923000000019215</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9997782890575</v>
       </c>
       <c r="F11" t="n">
-        <v>38.30173240292596</v>
+        <v>38.30173240292607</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6865945941216612</v>
+        <v>0.6865945941215214</v>
       </c>
       <c r="H11" t="n">
-        <v>6.495050791986106</v>
+        <v>6.495050791985549</v>
       </c>
       <c r="I11" t="n">
         <v>1.809925286532582</v>
@@ -1015,16 +1015,16 @@
         <v>48.22894317908594</v>
       </c>
       <c r="K11" t="n">
-        <v>1.66481887735857</v>
+        <v>1.664818877358557</v>
       </c>
       <c r="L11" t="n">
-        <v>43.49723199110417</v>
+        <v>43.49723199110362</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04524151659976568</v>
+        <v>0.04524151659976629</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9296284972514424</v>
+        <v>0.9296284972516193</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003337999999928343</v>
+        <v>0.0001884000000060837</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.7336826991741</v>
       </c>
       <c r="F12" t="n">
-        <v>37.07382242459734</v>
+        <v>37.07382242459727</v>
       </c>
       <c r="G12" t="n">
-        <v>63.63514897899761</v>
+        <v>63.63514897899093</v>
       </c>
       <c r="H12" t="n">
-        <v>2.668671339587091</v>
+        <v>2.66867133958728</v>
       </c>
       <c r="I12" t="n">
         <v>6.190703086112159</v>
@@ -1070,13 +1070,13 @@
         <v>6.152186606508971</v>
       </c>
       <c r="L12" t="n">
-        <v>36.08703620007912</v>
+        <v>36.0870362000795</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04469006115424115</v>
+        <v>0.04469006115424085</v>
       </c>
       <c r="N12" t="n">
-        <v>2.405349779688987</v>
+        <v>2.405349779689026</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003483000000130687</v>
+        <v>0.0002382999999994695</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.650109051739</v>
       </c>
       <c r="F13" t="n">
-        <v>33.99450376948131</v>
+        <v>33.99450376948113</v>
       </c>
       <c r="G13" t="n">
-        <v>12.25621663828215</v>
+        <v>12.25621663828186</v>
       </c>
       <c r="H13" t="n">
-        <v>9.113562490037681</v>
+        <v>9.113562490037904</v>
       </c>
       <c r="I13" t="n">
         <v>4.573663047849449</v>
@@ -1119,16 +1119,16 @@
         <v>40.78812565334459</v>
       </c>
       <c r="K13" t="n">
-        <v>4.46467012315714</v>
+        <v>4.464670123157128</v>
       </c>
       <c r="L13" t="n">
-        <v>42.19255600608892</v>
+        <v>42.19255600608901</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05631070028250072</v>
+        <v>0.05631070028250078</v>
       </c>
       <c r="N13" t="n">
-        <v>5.13520725472444</v>
+        <v>5.13520725472463</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003020999999989726</v>
+        <v>0.0001953000000014526</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.905402833702</v>
       </c>
       <c r="F14" t="n">
-        <v>37.33001190454399</v>
+        <v>37.33001190454338</v>
       </c>
       <c r="G14" t="n">
-        <v>25.61973683231046</v>
+        <v>25.61973683230994</v>
       </c>
       <c r="H14" t="n">
-        <v>12.09718979244008</v>
+        <v>12.09718979244009</v>
       </c>
       <c r="I14" t="n">
         <v>8.875985220654171</v>
@@ -1171,16 +1171,16 @@
         <v>50.60676945916118</v>
       </c>
       <c r="K14" t="n">
-        <v>8.782982536163658</v>
+        <v>8.782982536163619</v>
       </c>
       <c r="L14" t="n">
-        <v>48.37020400358944</v>
+        <v>48.3702040035889</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04577775340390041</v>
+        <v>0.04577775340390163</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1957254891187247</v>
+        <v>0.1957254891187714</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003352999999890471</v>
+        <v>0.0001892000000012217</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.1424781324101231</v>
       </c>
       <c r="F15" t="n">
-        <v>38.07234983840174</v>
+        <v>38.07234983840186</v>
       </c>
       <c r="G15" t="n">
-        <v>153.0705094098194</v>
+        <v>153.070509409821</v>
       </c>
       <c r="H15" t="n">
-        <v>6.763651008433079</v>
+        <v>6.763651008433377</v>
       </c>
       <c r="I15" t="n">
         <v>10.07090146044474</v>
@@ -1223,16 +1223,16 @@
         <v>32.50749114378547</v>
       </c>
       <c r="K15" t="n">
-        <v>9.931284915671903</v>
+        <v>9.931284915671917</v>
       </c>
       <c r="L15" t="n">
-        <v>28.64888689354305</v>
+        <v>28.64888689354274</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03949455056777406</v>
+        <v>0.03949455056777414</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9500423361372956</v>
+        <v>0.9500423361374795</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0008817000000078679</v>
+        <v>0.0001902999999998656</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.6897321777494</v>
       </c>
       <c r="F16" t="n">
-        <v>38.09957682934412</v>
+        <v>38.09957682935109</v>
       </c>
       <c r="G16" t="n">
-        <v>85.34722098421187</v>
+        <v>85.34722098421231</v>
       </c>
       <c r="H16" t="n">
-        <v>12.37681587447321</v>
+        <v>12.37681587447602</v>
       </c>
       <c r="I16" t="n">
         <v>23.38916312472101</v>
@@ -1275,16 +1275,16 @@
         <v>40.02752228674725</v>
       </c>
       <c r="K16" t="n">
-        <v>23.25687271412799</v>
+        <v>23.25687271412833</v>
       </c>
       <c r="L16" t="n">
-        <v>39.93215426444529</v>
+        <v>39.93215426445315</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05754117900442446</v>
+        <v>0.05754117900440287</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2362325524620852</v>
+        <v>0.236232552462234</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.001035900000005086</v>
+        <v>0.0001956999999990217</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.06246569630870719</v>
       </c>
       <c r="F17" t="n">
-        <v>38.12451491125274</v>
+        <v>38.12451491125358</v>
       </c>
       <c r="G17" t="n">
-        <v>161.1129678133109</v>
+        <v>161.1129678133079</v>
       </c>
       <c r="H17" t="n">
-        <v>5.945253562188106</v>
+        <v>5.945253562187715</v>
       </c>
       <c r="I17" t="n">
         <v>7.139827121650356</v>
@@ -1327,16 +1327,16 @@
         <v>32.14036686491941</v>
       </c>
       <c r="K17" t="n">
-        <v>6.98112663759049</v>
+        <v>6.981126637590553</v>
       </c>
       <c r="L17" t="n">
-        <v>28.97274300575353</v>
+        <v>28.97274300575495</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04314942717410213</v>
+        <v>0.043149427174099</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7999468105299168</v>
+        <v>0.7999468105295626</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003931999999906566</v>
+        <v>0.0002382999999994695</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9744102557732</v>
       </c>
       <c r="F18" t="n">
-        <v>36.85061614210944</v>
+        <v>36.85061614210862</v>
       </c>
       <c r="G18" t="n">
-        <v>40.57310724139025</v>
+        <v>40.57310724138978</v>
       </c>
       <c r="H18" t="n">
-        <v>8.115291022262253</v>
+        <v>8.115291022262072</v>
       </c>
       <c r="I18" t="n">
         <v>10.31962125775608</v>
@@ -1379,16 +1379,16 @@
         <v>46.64286093130009</v>
       </c>
       <c r="K18" t="n">
-        <v>10.19645764762259</v>
+        <v>10.19645764762255</v>
       </c>
       <c r="L18" t="n">
-        <v>42.29932500768234</v>
+        <v>42.29932500768139</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03666107554117493</v>
+        <v>0.03666107554117657</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5088020897562273</v>
+        <v>0.5088020897563053</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003319999999860102</v>
+        <v>0.000193899999999303</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9447468219957</v>
       </c>
       <c r="F19" t="n">
-        <v>36.93378297128709</v>
+        <v>36.9337829712917</v>
       </c>
       <c r="G19" t="n">
-        <v>51.63053082800211</v>
+        <v>51.6305308280009</v>
       </c>
       <c r="H19" t="n">
-        <v>8.641992456959025</v>
+        <v>8.641992456960841</v>
       </c>
       <c r="I19" t="n">
         <v>12.95212497878583</v>
@@ -1431,16 +1431,16 @@
         <v>45.29448328127268</v>
       </c>
       <c r="K19" t="n">
-        <v>12.80836062912151</v>
+        <v>12.80836062912174</v>
       </c>
       <c r="L19" t="n">
-        <v>41.79459119927293</v>
+        <v>41.79459119927925</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0449916041950504</v>
+        <v>0.04499160419503821</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3934637744274017</v>
+        <v>0.3934637744266581</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003547000000025946</v>
+        <v>0.0001912999999973408</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9841143112387</v>
       </c>
       <c r="F20" t="n">
-        <v>37.57095734976846</v>
+        <v>37.57095734976442</v>
       </c>
       <c r="G20" t="n">
-        <v>118.9315380061017</v>
+        <v>118.9315380061044</v>
       </c>
       <c r="H20" t="n">
-        <v>8.424904355635801</v>
+        <v>8.424904355634682</v>
       </c>
       <c r="I20" t="n">
         <v>18.50855438297455</v>
@@ -1483,16 +1483,16 @@
         <v>34.20258136458548</v>
       </c>
       <c r="K20" t="n">
-        <v>18.41252474661155</v>
+        <v>18.41252474661131</v>
       </c>
       <c r="L20" t="n">
-        <v>31.68588893464002</v>
+        <v>31.68588893463595</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04442679646788136</v>
+        <v>0.04442679646789228</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3698906521029308</v>
+        <v>0.3698906521035632</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003616999999849213</v>
+        <v>0.000190199999998697</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9557993474635</v>
       </c>
       <c r="F21" t="n">
-        <v>36.74104889107622</v>
+        <v>36.74104889107474</v>
       </c>
       <c r="G21" t="n">
-        <v>16.55613989622245</v>
+        <v>16.55613989622216</v>
       </c>
       <c r="H21" t="n">
-        <v>11.3291719661729</v>
+        <v>11.32917196617219</v>
       </c>
       <c r="I21" t="n">
         <v>6.192815573298068</v>
@@ -1535,16 +1535,16 @@
         <v>51.56829656334563</v>
       </c>
       <c r="K21" t="n">
-        <v>6.071820216177594</v>
+        <v>6.071820216177517</v>
       </c>
       <c r="L21" t="n">
-        <v>47.42208003145884</v>
+        <v>47.42208003145656</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04263126064565194</v>
+        <v>0.04263126064565565</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3552631435254429</v>
+        <v>0.3552631435256918</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003317999999978838</v>
+        <v>0.0001917000000020153</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.8232213774765</v>
       </c>
       <c r="F22" t="n">
-        <v>37.89003403918729</v>
+        <v>37.89003403919134</v>
       </c>
       <c r="G22" t="n">
-        <v>103.3951479972496</v>
+        <v>103.3951479972481</v>
       </c>
       <c r="H22" t="n">
-        <v>13.09363681977481</v>
+        <v>13.09363681977658</v>
       </c>
       <c r="I22" t="n">
         <v>27.44393404367798</v>
@@ -1587,16 +1587,16 @@
         <v>37.03369549700079</v>
       </c>
       <c r="K22" t="n">
-        <v>27.31603228596474</v>
+        <v>27.31603228596488</v>
       </c>
       <c r="L22" t="n">
-        <v>35.6036856915234</v>
+        <v>35.60368569152791</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04467699305880212</v>
+        <v>0.04467699305879181</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2812807866834786</v>
+        <v>0.2812807866829558</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0004945000000020627</v>
+        <v>0.0002798999999953367</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.01039284990110188</v>
       </c>
       <c r="F23" t="n">
-        <v>38.82701812867977</v>
+        <v>38.82701812867968</v>
       </c>
       <c r="G23" t="n">
-        <v>9.638178178826072</v>
+        <v>9.638178178825981</v>
       </c>
       <c r="H23" t="n">
-        <v>4.682445637575367</v>
+        <v>4.68244563757538</v>
       </c>
       <c r="I23" t="n">
         <v>2.990958436833284</v>
@@ -1642,13 +1642,13 @@
         <v>2.904480646151606</v>
       </c>
       <c r="L23" t="n">
-        <v>41.80397828463095</v>
+        <v>41.80397828463087</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04385957795422894</v>
+        <v>0.04385957795422903</v>
       </c>
       <c r="N23" t="n">
-        <v>0.856232909856025</v>
+        <v>0.8562329098560209</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0003941999999881318</v>
+        <v>0.0002235999999982141</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.01838998397303894</v>
       </c>
       <c r="F24" t="n">
-        <v>37.48476609891886</v>
+        <v>37.48476609891859</v>
       </c>
       <c r="G24" t="n">
-        <v>42.14989265414381</v>
+        <v>42.14989265414491</v>
       </c>
       <c r="H24" t="n">
-        <v>6.868755165684088</v>
+        <v>6.868755165683806</v>
       </c>
       <c r="I24" t="n">
         <v>9.419044849063178</v>
@@ -1694,13 +1694,13 @@
         <v>9.30433297829161</v>
       </c>
       <c r="L24" t="n">
-        <v>41.52566052470432</v>
+        <v>41.52566052470369</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0483421006624733</v>
+        <v>0.04834210066247441</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8625571198400773</v>
+        <v>0.862557119840208</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003432999999972708</v>
+        <v>0.0002009999999970091</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.8666023887293</v>
       </c>
       <c r="F25" t="n">
-        <v>37.61870907319041</v>
+        <v>37.61870907320726</v>
       </c>
       <c r="G25" t="n">
-        <v>91.38518370669964</v>
+        <v>91.38518370669831</v>
       </c>
       <c r="H25" t="n">
-        <v>13.59275425919726</v>
+        <v>13.59275425920489</v>
       </c>
       <c r="I25" t="n">
         <v>26.76285261071862</v>
@@ -1743,16 +1743,16 @@
         <v>40.82017006479759</v>
       </c>
       <c r="K25" t="n">
-        <v>26.67809745634608</v>
+        <v>26.67809745634684</v>
       </c>
       <c r="L25" t="n">
-        <v>38.7311381567138</v>
+        <v>38.73113815673308</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0412498360330936</v>
+        <v>0.04124983603305468</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2838522760012853</v>
+        <v>0.2838522759990119</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003154999999992469</v>
+        <v>0.0002113000000036891</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.7341575654701</v>
       </c>
       <c r="F26" t="n">
-        <v>37.2965721873172</v>
+        <v>37.2965721873166</v>
       </c>
       <c r="G26" t="n">
-        <v>166.5649520639895</v>
+        <v>166.5649520639899</v>
       </c>
       <c r="H26" t="n">
-        <v>7.569140061950932</v>
+        <v>7.569140061950812</v>
       </c>
       <c r="I26" t="n">
         <v>6.902497117049264</v>
@@ -1795,16 +1795,16 @@
         <v>23.99227987179233</v>
       </c>
       <c r="K26" t="n">
-        <v>6.856584221233262</v>
+        <v>6.85658422123321</v>
       </c>
       <c r="L26" t="n">
-        <v>26.03158077862241</v>
+        <v>26.03158077862193</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04749828400738072</v>
+        <v>0.04749828400738252</v>
       </c>
       <c r="N26" t="n">
-        <v>1.148343823908187</v>
+        <v>1.148343823908186</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003068999999982225</v>
+        <v>0.0004062999999945305</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9543453820668</v>
       </c>
       <c r="F27" t="n">
-        <v>38.54279011962151</v>
+        <v>38.54279011962117</v>
       </c>
       <c r="G27" t="n">
-        <v>156.4593930274515</v>
+        <v>156.4593930274513</v>
       </c>
       <c r="H27" t="n">
-        <v>9.477624245565409</v>
+        <v>9.477624245565222</v>
       </c>
       <c r="I27" t="n">
         <v>12.65928260151178</v>
@@ -1847,16 +1847,16 @@
         <v>27.0400161198854</v>
       </c>
       <c r="K27" t="n">
-        <v>12.56209855067136</v>
+        <v>12.56209855067132</v>
       </c>
       <c r="L27" t="n">
-        <v>26.12518587401304</v>
+        <v>26.12518587401291</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04593206094964501</v>
+        <v>0.04593206094964594</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2123436982248947</v>
+        <v>0.2123436982249701</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.002011299999992389</v>
+        <v>0.000214100000000883</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.960801357668</v>
       </c>
       <c r="F28" t="n">
-        <v>37.33933909424977</v>
+        <v>37.33933909425098</v>
       </c>
       <c r="G28" t="n">
-        <v>55.7864772951563</v>
+        <v>55.78647729515492</v>
       </c>
       <c r="H28" t="n">
-        <v>8.361729969201823</v>
+        <v>8.361729969202422</v>
       </c>
       <c r="I28" t="n">
         <v>13.26276120110444</v>
@@ -1899,16 +1899,16 @@
         <v>44.8670960835456</v>
       </c>
       <c r="K28" t="n">
-        <v>13.1664424531636</v>
+        <v>13.16644245316365</v>
       </c>
       <c r="L28" t="n">
-        <v>41.45465382282743</v>
+        <v>41.45465382282931</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04206758424428331</v>
+        <v>0.04206758424427999</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3956332976286113</v>
+        <v>0.3956332976283312</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003315999999813357</v>
+        <v>0.0002003999999971029</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.7428789169535</v>
       </c>
       <c r="F29" t="n">
-        <v>37.56855892579729</v>
+        <v>37.56855892578243</v>
       </c>
       <c r="G29" t="n">
-        <v>72.20877863674032</v>
+        <v>72.20877863674177</v>
       </c>
       <c r="H29" t="n">
-        <v>12.67142267593082</v>
+        <v>12.67142267592417</v>
       </c>
       <c r="I29" t="n">
         <v>21.4548724568795</v>
@@ -1951,16 +1951,16 @@
         <v>43.97582692503995</v>
       </c>
       <c r="K29" t="n">
-        <v>21.35247417967824</v>
+        <v>21.35247417967759</v>
       </c>
       <c r="L29" t="n">
-        <v>42.51631125392157</v>
+        <v>42.51631125390242</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0503544542529375</v>
+        <v>0.05035445425298037</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2117120081122861</v>
+        <v>0.2117120081144415</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.0001963000000060333</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.910733524426</v>
       </c>
       <c r="F30" t="n">
-        <v>38.12854800704323</v>
+        <v>38.12854800703728</v>
       </c>
       <c r="G30" t="n">
-        <v>129.3767456943746</v>
+        <v>129.3767456943808</v>
       </c>
       <c r="H30" t="n">
-        <v>9.081797898067247</v>
+        <v>9.081797898065796</v>
       </c>
       <c r="I30" t="n">
         <v>18.54236195781179</v>
@@ -2003,16 +2003,16 @@
         <v>31.31086349853181</v>
       </c>
       <c r="K30" t="n">
-        <v>18.43947019964717</v>
+        <v>18.43947019964687</v>
       </c>
       <c r="L30" t="n">
-        <v>30.14590547884764</v>
+        <v>30.14590547884151</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04174503272978068</v>
+        <v>0.04174503272979569</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3015923549283741</v>
+        <v>0.3015923549289963</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.002500200000014274</v>
+        <v>0.0002318000000016696</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.08349642526091273</v>
       </c>
       <c r="F31" t="n">
-        <v>38.2361597827313</v>
+        <v>38.23615978273108</v>
       </c>
       <c r="G31" t="n">
-        <v>162.072025984528</v>
+        <v>162.0720259845294</v>
       </c>
       <c r="H31" t="n">
-        <v>7.1483456670843</v>
+        <v>7.148345667084611</v>
       </c>
       <c r="I31" t="n">
         <v>8.182083613794248</v>
@@ -2055,16 +2055,16 @@
         <v>30.68820409084247</v>
       </c>
       <c r="K31" t="n">
-        <v>8.015681667015285</v>
+        <v>8.015681667015272</v>
       </c>
       <c r="L31" t="n">
-        <v>27.72916968274352</v>
+        <v>27.72916968274287</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04444018137139152</v>
+        <v>0.04444018137139284</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6512984792431562</v>
+        <v>0.6512984792433567</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003341000000034455</v>
+        <v>0.0003500000000045134</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.2528105329552826</v>
       </c>
       <c r="F32" t="n">
-        <v>35.97311652064444</v>
+        <v>35.97311652064671</v>
       </c>
       <c r="G32" t="n">
-        <v>133.0463034968536</v>
+        <v>133.0463034968527</v>
       </c>
       <c r="H32" t="n">
-        <v>7.122068288616441</v>
+        <v>7.122068288617025</v>
       </c>
       <c r="I32" t="n">
         <v>15.61526795852661</v>
@@ -2107,16 +2107,16 @@
         <v>34.69011036954826</v>
       </c>
       <c r="K32" t="n">
-        <v>15.3883190486621</v>
+        <v>15.38831904866226</v>
       </c>
       <c r="L32" t="n">
-        <v>28.54605752920187</v>
+        <v>28.54605752920385</v>
       </c>
       <c r="M32" t="n">
-        <v>0.04846220642500185</v>
+        <v>0.04846220642499428</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9270499427646546</v>
+        <v>0.9270499427643017</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002986000000078093</v>
+        <v>0.0002108999999990147</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.08295144285031669</v>
       </c>
       <c r="F33" t="n">
-        <v>36.0090729659692</v>
+        <v>36.00907296596952</v>
       </c>
       <c r="G33" t="n">
-        <v>52.32790836773711</v>
+        <v>52.327908367738</v>
       </c>
       <c r="H33" t="n">
-        <v>12.23169891394256</v>
+        <v>12.23169891394247</v>
       </c>
       <c r="I33" t="n">
         <v>17.04592559072634</v>
@@ -2159,16 +2159,16 @@
         <v>50.4312401368904</v>
       </c>
       <c r="K33" t="n">
-        <v>16.86246806548315</v>
+        <v>16.86246806548319</v>
       </c>
       <c r="L33" t="n">
-        <v>44.26631547414551</v>
+        <v>44.26631547414559</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04529858176058529</v>
+        <v>0.04529858176058519</v>
       </c>
       <c r="N33" t="n">
-        <v>0.6612489581606952</v>
+        <v>0.6612489581607237</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003349999999784359</v>
+        <v>0.0002015999999969154</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.06977889019788849</v>
       </c>
       <c r="F34" t="n">
-        <v>37.62915047291266</v>
+        <v>37.62915047291192</v>
       </c>
       <c r="G34" t="n">
-        <v>160.8337922311165</v>
+        <v>160.8337922311202</v>
       </c>
       <c r="H34" t="n">
-        <v>7.980581641453909</v>
+        <v>7.980581641454579</v>
       </c>
       <c r="I34" t="n">
         <v>9.72133225138751</v>
@@ -2211,16 +2211,16 @@
         <v>29.71000445935035</v>
       </c>
       <c r="K34" t="n">
-        <v>9.53226854917278</v>
+        <v>9.532268549172743</v>
       </c>
       <c r="L34" t="n">
-        <v>26.33045486875909</v>
+        <v>26.33045486875738</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04460261921232386</v>
+        <v>0.04460261921232738</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5626661369672171</v>
+        <v>0.5626661369676356</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003193999999950847</v>
+        <v>0.0001971000000011713</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.06377070102162243</v>
       </c>
       <c r="F35" t="n">
-        <v>37.20031591835995</v>
+        <v>37.20031591835849</v>
       </c>
       <c r="G35" t="n">
-        <v>50.55893073289465</v>
+        <v>50.55893073289755</v>
       </c>
       <c r="H35" t="n">
-        <v>6.509972572636432</v>
+        <v>6.50997257263564</v>
       </c>
       <c r="I35" t="n">
         <v>10.51069784481993</v>
@@ -2263,16 +2263,16 @@
         <v>45.30447558370837</v>
       </c>
       <c r="K35" t="n">
-        <v>10.38133668550648</v>
+        <v>10.38133668550641</v>
       </c>
       <c r="L35" t="n">
-        <v>40.20489525954823</v>
+        <v>40.20489525954581</v>
       </c>
       <c r="M35" t="n">
-        <v>0.04148682050186019</v>
+        <v>0.04148682050186453</v>
       </c>
       <c r="N35" t="n">
-        <v>0.928062107905723</v>
+        <v>0.9280621079061415</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003139000000089709</v>
+        <v>0.0002132999999986396</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9512329798744</v>
       </c>
       <c r="F36" t="n">
-        <v>37.35746056079055</v>
+        <v>37.3574605607905</v>
       </c>
       <c r="G36" t="n">
-        <v>6.563387376805168</v>
+        <v>6.563387376805219</v>
       </c>
       <c r="H36" t="n">
-        <v>11.06363070439301</v>
+        <v>11.06363070439276</v>
       </c>
       <c r="I36" t="n">
         <v>3.254530440680533</v>
@@ -2315,16 +2315,16 @@
         <v>52.19254532706056</v>
       </c>
       <c r="K36" t="n">
-        <v>3.171934669925189</v>
+        <v>3.171934669925176</v>
       </c>
       <c r="L36" t="n">
-        <v>48.00397095172311</v>
+        <v>48.00397095172276</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04153585056500587</v>
+        <v>0.04153585056500623</v>
       </c>
       <c r="N36" t="n">
-        <v>0.4262745960394363</v>
+        <v>0.4262745960394959</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003105000000118707</v>
+        <v>0.0002613999999994121</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.3779473420175646</v>
       </c>
       <c r="F37" t="n">
-        <v>35.66454026710502</v>
+        <v>35.66454026710992</v>
       </c>
       <c r="G37" t="n">
-        <v>121.5843166509753</v>
+        <v>121.5843166509729</v>
       </c>
       <c r="H37" t="n">
-        <v>5.408760081773907</v>
+        <v>5.408760081774962</v>
       </c>
       <c r="I37" t="n">
         <v>13.37639473419913</v>
@@ -2367,16 +2367,16 @@
         <v>39.51197959750446</v>
       </c>
       <c r="K37" t="n">
-        <v>13.16503592030065</v>
+        <v>13.16503592030105</v>
       </c>
       <c r="L37" t="n">
-        <v>30.44821620880031</v>
+        <v>30.44821620880493</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06099339513084344</v>
+        <v>0.0609933951308233</v>
       </c>
       <c r="N37" t="n">
-        <v>1.895386437578195</v>
+        <v>1.895386437577447</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003398000000061074</v>
+        <v>0.0002105000000014456</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.8647173468491</v>
       </c>
       <c r="F38" t="n">
-        <v>37.87643134203874</v>
+        <v>37.87643134203966</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3819590534967</v>
+        <v>128.3819590534965</v>
       </c>
       <c r="H38" t="n">
-        <v>9.433167032726702</v>
+        <v>9.433167032726994</v>
       </c>
       <c r="I38" t="n">
         <v>19.54422612244915</v>
@@ -2419,16 +2419,16 @@
         <v>31.10945420982688</v>
       </c>
       <c r="K38" t="n">
-        <v>19.42277220883491</v>
+        <v>19.42277220883497</v>
       </c>
       <c r="L38" t="n">
-        <v>29.93507629321902</v>
+        <v>29.93507629321981</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05016882838022226</v>
+        <v>0.05016882838021975</v>
       </c>
       <c r="N38" t="n">
-        <v>0.3543450058359355</v>
+        <v>0.3543450058358133</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003095000000143955</v>
+        <v>0.0001974999999987403</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.01089272246750185</v>
       </c>
       <c r="F39" t="n">
-        <v>38.63309768731694</v>
+        <v>38.63309768731646</v>
       </c>
       <c r="G39" t="n">
-        <v>171.2649685193596</v>
+        <v>171.2649685193591</v>
       </c>
       <c r="H39" t="n">
-        <v>8.602694331536078</v>
+        <v>8.602694331535526</v>
       </c>
       <c r="I39" t="n">
         <v>6.186312769693502</v>
@@ -2471,16 +2471,16 @@
         <v>27.41620526036646</v>
       </c>
       <c r="K39" t="n">
-        <v>6.071247633243271</v>
+        <v>6.071247633243233</v>
       </c>
       <c r="L39" t="n">
-        <v>25.95883759860267</v>
+        <v>25.95883759860287</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04138646647007878</v>
+        <v>0.04138646647007931</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1585291913496184</v>
+        <v>0.1585291913494385</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.000358199999993758</v>
+        <v>0.0001943000000039774</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.7982588703766</v>
       </c>
       <c r="F40" t="n">
-        <v>37.3184045988046</v>
+        <v>37.31840459880797</v>
       </c>
       <c r="G40" t="n">
-        <v>66.56939481459528</v>
+        <v>66.56939481459634</v>
       </c>
       <c r="H40" t="n">
-        <v>12.86050396087358</v>
+        <v>12.86050396087489</v>
       </c>
       <c r="I40" t="n">
         <v>20.5252257742755</v>
@@ -2523,16 +2523,16 @@
         <v>45.96040818063756</v>
       </c>
       <c r="K40" t="n">
-        <v>20.41412039072647</v>
+        <v>20.41412039072666</v>
       </c>
       <c r="L40" t="n">
-        <v>43.57508930057587</v>
+        <v>43.57508930057992</v>
       </c>
       <c r="M40" t="n">
-        <v>0.04956408169272961</v>
+        <v>0.04956408169272091</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2671258370566049</v>
+        <v>0.2671258370561433</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003323000000250431</v>
+        <v>0.0001956999999990217</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.7190320867956</v>
       </c>
       <c r="F41" t="n">
-        <v>37.85353367986477</v>
+        <v>37.85353367985738</v>
       </c>
       <c r="G41" t="n">
         <v>93.04913928081173</v>
       </c>
       <c r="H41" t="n">
-        <v>12.25641002241856</v>
+        <v>12.25641002241557</v>
       </c>
       <c r="I41" t="n">
         <v>24.59356450720858</v>
@@ -2575,16 +2575,16 @@
         <v>38.67756631959967</v>
       </c>
       <c r="K41" t="n">
-        <v>24.45858549456056</v>
+        <v>24.45858549456018</v>
       </c>
       <c r="L41" t="n">
-        <v>37.85110736613131</v>
+        <v>37.85110736612328</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05356450326044924</v>
+        <v>0.05356450326047098</v>
       </c>
       <c r="N41" t="n">
-        <v>0.2674276028266304</v>
+        <v>0.2674276028276706</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003086999999766249</v>
+        <v>0.0002441999999973632</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.1215095394422438</v>
       </c>
       <c r="F42" t="n">
-        <v>37.9983422310166</v>
+        <v>37.99834223101498</v>
       </c>
       <c r="G42" t="n">
-        <v>107.2678348442301</v>
+        <v>107.2678348442384</v>
       </c>
       <c r="H42" t="n">
-        <v>2.984847185577078</v>
+        <v>2.984847185576914</v>
       </c>
       <c r="I42" t="n">
         <v>7.93230154723043</v>
@@ -2627,16 +2627,16 @@
         <v>39.01438474191893</v>
       </c>
       <c r="K42" t="n">
-        <v>7.751390008892998</v>
+        <v>7.751390008892884</v>
       </c>
       <c r="L42" t="n">
-        <v>34.63514632697533</v>
+        <v>34.63514632697323</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04337058221002554</v>
+        <v>0.04337058221003003</v>
       </c>
       <c r="N42" t="n">
-        <v>1.543023954755233</v>
+        <v>1.543023954755672</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003166999999848485</v>
+        <v>0.0002167999999969084</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.05414246461346952</v>
       </c>
       <c r="F43" t="n">
-        <v>37.86161678135878</v>
+        <v>37.86161678135903</v>
       </c>
       <c r="G43" t="n">
-        <v>75.35546595475972</v>
+        <v>75.35546595477383</v>
       </c>
       <c r="H43" t="n">
-        <v>2.087692152460194</v>
+        <v>2.087692152460033</v>
       </c>
       <c r="I43" t="n">
         <v>5.928428201044865</v>
@@ -2679,16 +2679,16 @@
         <v>40.60700288008367</v>
       </c>
       <c r="K43" t="n">
-        <v>5.777330419011858</v>
+        <v>5.777330419011871</v>
       </c>
       <c r="L43" t="n">
-        <v>36.0617851250885</v>
+        <v>36.06178512508811</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04297577316338456</v>
+        <v>0.04297577316338481</v>
       </c>
       <c r="N43" t="n">
-        <v>2.01015549192732</v>
+        <v>2.010155491927795</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0006115999999849464</v>
+        <v>0.0001967000000036023</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.9006571693977</v>
       </c>
       <c r="F44" t="n">
-        <v>37.27257070115131</v>
+        <v>37.27257070113458</v>
       </c>
       <c r="G44" t="n">
-        <v>66.56121842115536</v>
+        <v>66.56121842115634</v>
       </c>
       <c r="H44" t="n">
-        <v>13.44707546185995</v>
+        <v>13.44707546185199</v>
       </c>
       <c r="I44" t="n">
         <v>21.26723767084115</v>
@@ -2731,16 +2731,16 @@
         <v>47.24055450089488</v>
       </c>
       <c r="K44" t="n">
-        <v>21.17451103464229</v>
+        <v>21.17451103464159</v>
       </c>
       <c r="L44" t="n">
-        <v>44.04871520773263</v>
+        <v>44.04871520771013</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04317086066051737</v>
+        <v>0.04317086066055928</v>
       </c>
       <c r="N44" t="n">
-        <v>0.3240182899055389</v>
+        <v>0.3240182899078681</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003322999999966214</v>
+        <v>0.0001950999999991154</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.948520014931</v>
       </c>
       <c r="F45" t="n">
-        <v>36.81797131057041</v>
+        <v>36.81797131057028</v>
       </c>
       <c r="G45" t="n">
-        <v>19.29091884714546</v>
+        <v>19.29091884714606</v>
       </c>
       <c r="H45" t="n">
-        <v>9.764671930851383</v>
+        <v>9.764671930850858</v>
       </c>
       <c r="I45" t="n">
         <v>6.462352581508514</v>
@@ -2786,13 +2786,13 @@
         <v>6.314462685152124</v>
       </c>
       <c r="L45" t="n">
-        <v>45.53756181943673</v>
+        <v>45.53756181943598</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04267025294393609</v>
+        <v>0.04267025294393715</v>
       </c>
       <c r="N45" t="n">
-        <v>0.3305941821268693</v>
+        <v>0.3305941821270073</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.000296700000006922</v>
+        <v>0.0002460000000041873</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.1501229434511689</v>
       </c>
       <c r="F46" t="n">
-        <v>39.12151489369434</v>
+        <v>39.12151489369425</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1744815121811</v>
+        <v>166.1744815121808</v>
       </c>
       <c r="H46" t="n">
-        <v>6.557322325977506</v>
+        <v>6.557322325977407</v>
       </c>
       <c r="I46" t="n">
         <v>6.414402748801739</v>
@@ -2835,16 +2835,16 @@
         <v>33.15455134515927</v>
       </c>
       <c r="K46" t="n">
-        <v>6.234671236081661</v>
+        <v>6.234671236081649</v>
       </c>
       <c r="L46" t="n">
-        <v>29.03594140910554</v>
+        <v>29.03594140910557</v>
       </c>
       <c r="M46" t="n">
-        <v>0.04573664368225294</v>
+        <v>0.04573664368225303</v>
       </c>
       <c r="N46" t="n">
-        <v>1.999951548140285</v>
+        <v>1.999951548140219</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003255000000024211</v>
+        <v>0.0002668999999997368</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9947250454301</v>
       </c>
       <c r="F47" t="n">
-        <v>38.58058159563591</v>
+        <v>38.58058159563585</v>
       </c>
       <c r="G47" t="n">
-        <v>178.8972468734326</v>
+        <v>178.8972468734325</v>
       </c>
       <c r="H47" t="n">
-        <v>9.918404541682857</v>
+        <v>9.918404541682763</v>
       </c>
       <c r="I47" t="n">
         <v>3.467189284049275</v>
@@ -2890,13 +2890,13 @@
         <v>3.319986946107889</v>
       </c>
       <c r="L47" t="n">
-        <v>24.10479357727207</v>
+        <v>24.10479357727212</v>
       </c>
       <c r="M47" t="n">
-        <v>0.03989333105930492</v>
+        <v>0.03989333105930488</v>
       </c>
       <c r="N47" t="n">
-        <v>0.260056441967358</v>
+        <v>0.2600564419673287</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003356999999937216</v>
+        <v>0.0002269000000012511</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.8830248320259</v>
       </c>
       <c r="F48" t="n">
-        <v>38.45358951271574</v>
+        <v>38.45358951272227</v>
       </c>
       <c r="G48" t="n">
-        <v>139.1952269710262</v>
+        <v>139.1952269710234</v>
       </c>
       <c r="H48" t="n">
-        <v>9.955808392163732</v>
+        <v>9.955808392165665</v>
       </c>
       <c r="I48" t="n">
         <v>18.46712300039825</v>
@@ -2939,16 +2939,16 @@
         <v>28.96028508939844</v>
       </c>
       <c r="K48" t="n">
-        <v>18.37288638146689</v>
+        <v>18.37288638146734</v>
       </c>
       <c r="L48" t="n">
-        <v>28.23317840222615</v>
+        <v>28.23317840223166</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04569175828050432</v>
+        <v>0.04569175828048705</v>
       </c>
       <c r="N48" t="n">
-        <v>0.2686826019768441</v>
+        <v>0.2686826019760348</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003611000000205422</v>
+        <v>0.00022560000000027</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.1696018951532245</v>
       </c>
       <c r="F49" t="n">
-        <v>37.35565454329209</v>
+        <v>37.3556545432949</v>
       </c>
       <c r="G49" t="n">
-        <v>23.78612210954612</v>
+        <v>23.78612210954592</v>
       </c>
       <c r="H49" t="n">
-        <v>9.868522019518551</v>
+        <v>9.868522019520094</v>
       </c>
       <c r="I49" t="n">
         <v>7.737749257815719</v>
@@ -2991,16 +2991,16 @@
         <v>54.40266989146843</v>
       </c>
       <c r="K49" t="n">
-        <v>7.570623572653751</v>
+        <v>7.570623572653904</v>
       </c>
       <c r="L49" t="n">
-        <v>45.97620966989814</v>
+        <v>45.97620966990272</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04566292664232463</v>
+        <v>0.04566292664231719</v>
       </c>
       <c r="N49" t="n">
-        <v>1.204858729983288</v>
+        <v>1.204858729982837</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003147999999839612</v>
+        <v>0.000217299999995646</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.1987262639856959</v>
       </c>
       <c r="F50" t="n">
-        <v>39.85479450865924</v>
+        <v>39.85479450865942</v>
       </c>
       <c r="G50" t="n">
-        <v>1.480493352635692</v>
+        <v>1.480493352635654</v>
       </c>
       <c r="H50" t="n">
-        <v>5.519944708924052</v>
+        <v>5.519944708923531</v>
       </c>
       <c r="I50" t="n">
         <v>2.206985498596769</v>
@@ -3043,16 +3043,16 @@
         <v>53.83741801538552</v>
       </c>
       <c r="K50" t="n">
-        <v>1.932418458726454</v>
+        <v>1.932418458726441</v>
       </c>
       <c r="L50" t="n">
-        <v>43.88487223062631</v>
+        <v>43.88487223062588</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04933064845477257</v>
+        <v>0.04933064845477268</v>
       </c>
       <c r="N50" t="n">
-        <v>1.911069026602433</v>
+        <v>1.911069026602549</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003296000000148069</v>
+        <v>0.0002542000000005373</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.2086318156413209</v>
       </c>
       <c r="F51" t="n">
-        <v>37.03130620381462</v>
+        <v>37.03130620381228</v>
       </c>
       <c r="G51" t="n">
-        <v>84.39039864752594</v>
+        <v>84.39039864753079</v>
       </c>
       <c r="H51" t="n">
-        <v>3.691580567415715</v>
+        <v>3.691580567415229</v>
       </c>
       <c r="I51" t="n">
         <v>9.522643035896857</v>
@@ -3095,16 +3095,16 @@
         <v>42.15412902103607</v>
       </c>
       <c r="K51" t="n">
-        <v>9.311921757287468</v>
+        <v>9.311921757287315</v>
       </c>
       <c r="L51" t="n">
-        <v>35.31307239439931</v>
+        <v>35.31307239439647</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04342222492347175</v>
+        <v>0.04342222492347812</v>
       </c>
       <c r="N51" t="n">
-        <v>2.031327417221308</v>
+        <v>2.031327417221788</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.000294999999994161</v>
+        <v>0.000216500000000508</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.3120704217367269</v>
       </c>
       <c r="F52" t="n">
-        <v>36.38764329068219</v>
+        <v>36.38764329068229</v>
       </c>
       <c r="G52" t="n">
-        <v>125.6326100287638</v>
+        <v>125.6326100287622</v>
       </c>
       <c r="H52" t="n">
-        <v>5.122239698245249</v>
+        <v>5.122239698245204</v>
       </c>
       <c r="I52" t="n">
         <v>12.12114158782843</v>
@@ -3150,13 +3150,13 @@
         <v>11.90454475912165</v>
       </c>
       <c r="L52" t="n">
-        <v>30.85334344381133</v>
+        <v>30.85334344381161</v>
       </c>
       <c r="M52" t="n">
-        <v>0.05241421343754529</v>
+        <v>0.05241421343754466</v>
       </c>
       <c r="N52" t="n">
-        <v>1.563140656563295</v>
+        <v>1.563140656563264</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003425000000163436</v>
+        <v>0.0002076999999971463</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.05810063466972768</v>
       </c>
       <c r="F53" t="n">
-        <v>37.65716706232852</v>
+        <v>37.65716706232838</v>
       </c>
       <c r="G53" t="n">
-        <v>134.1110334803095</v>
+        <v>134.1110334803062</v>
       </c>
       <c r="H53" t="n">
-        <v>3.542988050722305</v>
+        <v>3.542988050722131</v>
       </c>
       <c r="I53" t="n">
         <v>7.748476824274211</v>
@@ -3199,16 +3199,16 @@
         <v>35.48188845695773</v>
       </c>
       <c r="K53" t="n">
-        <v>7.56606948965908</v>
+        <v>7.566069489659068</v>
       </c>
       <c r="L53" t="n">
-        <v>32.36322880928429</v>
+        <v>32.36322880928447</v>
       </c>
       <c r="M53" t="n">
-        <v>0.04196097165653068</v>
+        <v>0.04196097165653063</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5086307661433234</v>
+        <v>0.5086307661431089</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003341000000034455</v>
+        <v>0.000244500000000869</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.8961048318772</v>
       </c>
       <c r="F54" t="n">
-        <v>38.28629062125801</v>
+        <v>38.28629062125761</v>
       </c>
       <c r="G54" t="n">
-        <v>126.9171401294049</v>
+        <v>126.917140129408</v>
       </c>
       <c r="H54" t="n">
-        <v>2.225532949100392</v>
+        <v>2.225532949100409</v>
       </c>
       <c r="I54" t="n">
         <v>5.48941339683741</v>
@@ -3251,16 +3251,16 @@
         <v>34.1625217894218</v>
       </c>
       <c r="K54" t="n">
-        <v>5.426771529040844</v>
+        <v>5.426771529040819</v>
       </c>
       <c r="L54" t="n">
-        <v>34.21909434926577</v>
+        <v>34.21909434926522</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03967912658471096</v>
+        <v>0.03967912658471197</v>
       </c>
       <c r="N54" t="n">
-        <v>1.370305189629215</v>
+        <v>1.370305189629107</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.000291800000013609</v>
+        <v>0.0002081000000018207</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.9588270266299</v>
       </c>
       <c r="F55" t="n">
-        <v>37.81000289179388</v>
+        <v>37.81000289179232</v>
       </c>
       <c r="G55" t="n">
-        <v>152.9823055745903</v>
+        <v>152.9823055745915</v>
       </c>
       <c r="H55" t="n">
-        <v>9.145533445875033</v>
+        <v>9.145533445874729</v>
       </c>
       <c r="I55" t="n">
         <v>13.68504178555428</v>
@@ -3303,16 +3303,16 @@
         <v>27.82199853704786</v>
       </c>
       <c r="K55" t="n">
-        <v>13.55684685136046</v>
+        <v>13.55684685136035</v>
       </c>
       <c r="L55" t="n">
-        <v>26.1451547073792</v>
+        <v>26.1451547073778</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0481874148296</v>
+        <v>0.04818741482960478</v>
       </c>
       <c r="N55" t="n">
-        <v>0.298209875841415</v>
+        <v>0.2982098758416366</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003352999999890471</v>
+        <v>0.000317599999995366</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.3704421489225846</v>
       </c>
       <c r="F56" t="n">
-        <v>35.56563176766866</v>
+        <v>35.56563176766868</v>
       </c>
       <c r="G56" t="n">
-        <v>108.4477678167739</v>
+        <v>108.4477678167787</v>
       </c>
       <c r="H56" t="n">
-        <v>5.327968936896057</v>
+        <v>5.327968936896112</v>
       </c>
       <c r="I56" t="n">
         <v>13.80604339457914</v>
@@ -3355,16 +3355,16 @@
         <v>40.75218031113259</v>
       </c>
       <c r="K56" t="n">
-        <v>13.57161542769948</v>
+        <v>13.5716154276995</v>
       </c>
       <c r="L56" t="n">
-        <v>31.81366811258073</v>
+        <v>31.81366811258021</v>
       </c>
       <c r="M56" t="n">
-        <v>0.05308761343735958</v>
+        <v>0.05308761343736029</v>
       </c>
       <c r="N56" t="n">
-        <v>1.934492612532669</v>
+        <v>1.93449261253279</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0005176999999889631</v>
+        <v>0.0002586999999962813</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.3247462229268011</v>
       </c>
       <c r="F57" t="n">
-        <v>37.88273160094868</v>
+        <v>37.88273160094865</v>
       </c>
       <c r="G57" t="n">
-        <v>24.17950716127433</v>
+        <v>24.17950716127623</v>
       </c>
       <c r="H57" t="n">
-        <v>6.896861623695235</v>
+        <v>6.896861623694512</v>
       </c>
       <c r="I57" t="n">
         <v>6.567392205827259</v>
@@ -3410,13 +3410,13 @@
         <v>6.363674299382543</v>
       </c>
       <c r="L57" t="n">
-        <v>43.08134344185343</v>
+        <v>43.08134344185248</v>
       </c>
       <c r="M57" t="n">
-        <v>0.05327898908512785</v>
+        <v>0.05327898908512909</v>
       </c>
       <c r="N57" t="n">
-        <v>1.911564161243198</v>
+        <v>1.911564161243398</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003045999999926607</v>
+        <v>0.0002342000000012945</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.207528635100521</v>
       </c>
       <c r="F58" t="n">
-        <v>40.53224761627295</v>
+        <v>40.53224761627304</v>
       </c>
       <c r="G58" t="n">
-        <v>180.6996337064351</v>
+        <v>180.6996337064353</v>
       </c>
       <c r="H58" t="n">
-        <v>11.99298437227688</v>
+        <v>11.99298437227781</v>
       </c>
       <c r="I58" t="n">
         <v>3.134105438173524</v>
@@ -3459,16 +3459,16 @@
         <v>29.03628849697263</v>
       </c>
       <c r="K58" t="n">
-        <v>2.778045152470636</v>
+        <v>2.778045152470573</v>
       </c>
       <c r="L58" t="n">
-        <v>23.55279059227681</v>
+        <v>23.55279059227578</v>
       </c>
       <c r="M58" t="n">
-        <v>0.05325434563650659</v>
+        <v>0.05325434563650946</v>
       </c>
       <c r="N58" t="n">
-        <v>2.27502149769231</v>
+        <v>2.27502149769272</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002996999999993477</v>
+        <v>0.0002087999999957901</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.02621043146937827</v>
       </c>
       <c r="F59" t="n">
-        <v>37.26877495286895</v>
+        <v>37.26877495286843</v>
       </c>
       <c r="G59" t="n">
-        <v>14.9523705771771</v>
+        <v>14.95237057717621</v>
       </c>
       <c r="H59" t="n">
-        <v>4.759253112155989</v>
+        <v>4.759253112156137</v>
       </c>
       <c r="I59" t="n">
         <v>3.955386232874815</v>
@@ -3511,16 +3511,16 @@
         <v>44.14878636314997</v>
       </c>
       <c r="K59" t="n">
-        <v>3.790004822457774</v>
+        <v>3.790004822457749</v>
       </c>
       <c r="L59" t="n">
-        <v>40.25818208936219</v>
+        <v>40.25818208936188</v>
       </c>
       <c r="M59" t="n">
-        <v>0.04730688777658783</v>
+        <v>0.04730688777658879</v>
       </c>
       <c r="N59" t="n">
-        <v>0.6438872724592902</v>
+        <v>0.6438872724592668</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003254000000083579</v>
+        <v>0.0005128999999968187</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.1520372292349083</v>
       </c>
       <c r="F60" t="n">
-        <v>36.10819697246076</v>
+        <v>36.10819697246238</v>
       </c>
       <c r="G60" t="n">
-        <v>74.07460385501579</v>
+        <v>74.07460385501622</v>
       </c>
       <c r="H60" t="n">
-        <v>6.500287490084062</v>
+        <v>6.500287490084467</v>
       </c>
       <c r="I60" t="n">
         <v>14.02411002723861</v>
@@ -3563,16 +3563,16 @@
         <v>42.81185243735961</v>
       </c>
       <c r="K60" t="n">
-        <v>13.8230093688943</v>
+        <v>13.8230093688944</v>
       </c>
       <c r="L60" t="n">
-        <v>36.69474702541191</v>
+        <v>36.69474702541368</v>
       </c>
       <c r="M60" t="n">
-        <v>0.04284199511011887</v>
+        <v>0.04284199511011492</v>
       </c>
       <c r="N60" t="n">
-        <v>1.066021949208787</v>
+        <v>1.066021949208587</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003512000000114313</v>
+        <v>0.0002366000000009194</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.3338567042789481</v>
       </c>
       <c r="F61" t="n">
-        <v>39.5896959438021</v>
+        <v>39.58969594380261</v>
       </c>
       <c r="G61" t="n">
         <v>178.8149055331067</v>
       </c>
       <c r="H61" t="n">
-        <v>11.39243517703531</v>
+        <v>11.39243517703568</v>
       </c>
       <c r="I61" t="n">
         <v>4.618349672385955</v>
@@ -3615,16 +3615,16 @@
         <v>31.77994929725002</v>
       </c>
       <c r="K61" t="n">
-        <v>4.132739216885243</v>
+        <v>4.132739216885295</v>
       </c>
       <c r="L61" t="n">
-        <v>23.36541896468298</v>
+        <v>23.36541896468305</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0624199060967941</v>
+        <v>0.0624199060967919</v>
       </c>
       <c r="N61" t="n">
-        <v>4.193970105079995</v>
+        <v>4.193970105080163</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003174999999941974</v>
+        <v>0.0002282000000022322</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.1843541986426154</v>
       </c>
       <c r="F62" t="n">
-        <v>37.81465849033632</v>
+        <v>37.81465849033551</v>
       </c>
       <c r="G62" t="n">
-        <v>94.09616339476436</v>
+        <v>94.09616339476491</v>
       </c>
       <c r="H62" t="n">
-        <v>3.295956068090335</v>
+        <v>3.295956068090206</v>
       </c>
       <c r="I62" t="n">
         <v>8.681791459262989</v>
@@ -3667,16 +3667,16 @@
         <v>41.54402924555519</v>
       </c>
       <c r="K62" t="n">
-        <v>8.530497327714746</v>
+        <v>8.530497327714695</v>
       </c>
       <c r="L62" t="n">
-        <v>35.30617201652201</v>
+        <v>35.30617201652117</v>
       </c>
       <c r="M62" t="n">
-        <v>0.05089707936712698</v>
+        <v>0.05089707936712951</v>
       </c>
       <c r="N62" t="n">
-        <v>2.215054975521985</v>
+        <v>2.21505497552211</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003202000000044336</v>
+        <v>0.0002005999999994401</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.08629911031195799</v>
       </c>
       <c r="F63" t="n">
-        <v>38.31862740444356</v>
+        <v>38.31862740444324</v>
       </c>
       <c r="G63" t="n">
-        <v>158.3601638769512</v>
+        <v>158.3601638769515</v>
       </c>
       <c r="H63" t="n">
-        <v>6.081953779392673</v>
+        <v>6.081953779392638</v>
       </c>
       <c r="I63" t="n">
         <v>7.850039722804902</v>
@@ -3719,16 +3719,16 @@
         <v>32.39652408006119</v>
       </c>
       <c r="K63" t="n">
-        <v>7.718842674284823</v>
+        <v>7.718842674284797</v>
       </c>
       <c r="L63" t="n">
-        <v>29.18268384245528</v>
+        <v>29.18268384245498</v>
       </c>
       <c r="M63" t="n">
-        <v>0.04508269159815956</v>
+        <v>0.04508269159816047</v>
       </c>
       <c r="N63" t="n">
-        <v>0.884492048868148</v>
+        <v>0.8844920488681616</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.000323900000012145</v>
+        <v>0.0001943999999980406</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.002465085260736356</v>
       </c>
       <c r="F64" t="n">
-        <v>38.60394287227416</v>
+        <v>38.603942872275</v>
       </c>
       <c r="G64" t="n">
-        <v>5.976113471234616</v>
+        <v>5.976113471235291</v>
       </c>
       <c r="H64" t="n">
-        <v>6.906796712445589</v>
+        <v>6.906796712445126</v>
       </c>
       <c r="I64" t="n">
         <v>2.741606634097171</v>
@@ -3771,16 +3771,16 @@
         <v>48.02196508739905</v>
       </c>
       <c r="K64" t="n">
-        <v>2.634285550550808</v>
+        <v>2.634285550550846</v>
       </c>
       <c r="L64" t="n">
-        <v>44.27748390316196</v>
+        <v>44.27748390316225</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03828563323418468</v>
+        <v>0.03828563323418373</v>
       </c>
       <c r="N64" t="n">
-        <v>0.7124518004017493</v>
+        <v>0.7124518004018456</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003247999999871354</v>
+        <v>0.0004938000000009879</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.4277957307036171</v>
       </c>
       <c r="F65" t="n">
-        <v>35.10147647322754</v>
+        <v>35.10147647323358</v>
       </c>
       <c r="G65" t="n">
-        <v>129.4352614869025</v>
+        <v>129.4352614868953</v>
       </c>
       <c r="H65" t="n">
-        <v>6.80626228771381</v>
+        <v>6.8062622877151</v>
       </c>
       <c r="I65" t="n">
         <v>16.10870148266759</v>
@@ -3823,16 +3823,16 @@
         <v>37.27781598912134</v>
       </c>
       <c r="K65" t="n">
-        <v>15.83234048746881</v>
+        <v>15.83234048746925</v>
       </c>
       <c r="L65" t="n">
-        <v>28.37241312222923</v>
+        <v>28.37241312223538</v>
       </c>
       <c r="M65" t="n">
-        <v>0.06075353863709262</v>
+        <v>0.06075353863706505</v>
       </c>
       <c r="N65" t="n">
-        <v>1.51623184859511</v>
+        <v>1.516231848594127</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003116999999974723</v>
+        <v>0.0002352999999999383</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.7799354121537</v>
       </c>
       <c r="F66" t="n">
-        <v>37.43671270047953</v>
+        <v>37.43671270048051</v>
       </c>
       <c r="G66" t="n">
-        <v>61.69373428328558</v>
+        <v>61.69373428328446</v>
       </c>
       <c r="H66" t="n">
-        <v>10.06587008672122</v>
+        <v>10.06587008672176</v>
       </c>
       <c r="I66" t="n">
         <v>16.16170376099309</v>
@@ -3875,16 +3875,16 @@
         <v>43.46372352112631</v>
       </c>
       <c r="K66" t="n">
-        <v>16.04500774664193</v>
+        <v>16.04500774664196</v>
       </c>
       <c r="L66" t="n">
-        <v>42.19133826106157</v>
+        <v>42.19133826106314</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0551149853686761</v>
+        <v>0.05511498536867256</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3080330552325768</v>
+        <v>0.3080330552326761</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0004018999999857442</v>
+        <v>0.0002021000000027584</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.1667329646265426</v>
       </c>
       <c r="F67" t="n">
-        <v>38.50978922874715</v>
+        <v>38.50978922874717</v>
       </c>
       <c r="G67" t="n">
-        <v>124.8672280112106</v>
+        <v>124.867228011223</v>
       </c>
       <c r="H67" t="n">
-        <v>1.817187995307443</v>
+        <v>1.817187995307667</v>
       </c>
       <c r="I67" t="n">
         <v>5.274021781485452</v>
@@ -3930,13 +3930,13 @@
         <v>5.06643922103259</v>
       </c>
       <c r="L67" t="n">
-        <v>34.78254758112009</v>
+        <v>34.78254758111958</v>
       </c>
       <c r="M67" t="n">
-        <v>0.04492327008073164</v>
+        <v>0.04492327008073227</v>
       </c>
       <c r="N67" t="n">
-        <v>3.586278558611036</v>
+        <v>3.5862785586112</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003123999999843363</v>
+        <v>0.0002202000000011139</v>
       </c>
     </row>
     <row r="68">
@@ -3967,10 +3967,10 @@
         <v>35.50238581111165</v>
       </c>
       <c r="G68" t="n">
-        <v>15.90261136662923</v>
+        <v>15.90261136662969</v>
       </c>
       <c r="H68" t="n">
-        <v>8.159858773208478</v>
+        <v>8.159858773208127</v>
       </c>
       <c r="I68" t="n">
         <v>5.062672950318515</v>
@@ -3979,16 +3979,16 @@
         <v>42.43801944024082</v>
       </c>
       <c r="K68" t="n">
-        <v>4.969095980689539</v>
+        <v>4.969095980689526</v>
       </c>
       <c r="L68" t="n">
-        <v>42.46226729134131</v>
+        <v>42.46226729134087</v>
       </c>
       <c r="M68" t="n">
-        <v>0.05013502093758901</v>
+        <v>0.05013502093758949</v>
       </c>
       <c r="N68" t="n">
-        <v>2.251548433236091</v>
+        <v>2.251548433235878</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0002985000000137461</v>
+        <v>0.0001953999999955158</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.7742955695559</v>
       </c>
       <c r="F69" t="n">
-        <v>37.88833989513914</v>
+        <v>37.88833989513419</v>
       </c>
       <c r="G69" t="n">
-        <v>94.05838708025111</v>
+        <v>94.05838708025324</v>
       </c>
       <c r="H69" t="n">
-        <v>12.86244891841332</v>
+        <v>12.86244891841109</v>
       </c>
       <c r="I69" t="n">
         <v>25.81153388271712</v>
@@ -4031,16 +4031,16 @@
         <v>38.98056188996542</v>
       </c>
       <c r="K69" t="n">
-        <v>25.65649353717242</v>
+        <v>25.65649353717225</v>
       </c>
       <c r="L69" t="n">
-        <v>37.91776903564936</v>
+        <v>37.91776903564337</v>
       </c>
       <c r="M69" t="n">
-        <v>0.04992533378554303</v>
+        <v>0.04992533378555745</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2724603894654287</v>
+        <v>0.2724603894660943</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003076999999791497</v>
+        <v>0.0004879000000030942</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.1888952728743358</v>
       </c>
       <c r="F70" t="n">
-        <v>38.25946455134974</v>
+        <v>38.25946455135011</v>
       </c>
       <c r="G70" t="n">
-        <v>140.5861014120593</v>
+        <v>140.5861014120599</v>
       </c>
       <c r="H70" t="n">
-        <v>2.70295951457206</v>
+        <v>2.702959514572148</v>
       </c>
       <c r="I70" t="n">
         <v>6.014679871228592</v>
@@ -4083,16 +4083,16 @@
         <v>40.50448663765381</v>
       </c>
       <c r="K70" t="n">
-        <v>5.782963291404132</v>
+        <v>5.782963291404158</v>
       </c>
       <c r="L70" t="n">
-        <v>33.30649886884608</v>
+        <v>33.30649886884633</v>
       </c>
       <c r="M70" t="n">
-        <v>0.04812175717536431</v>
+        <v>0.04812175717536324</v>
       </c>
       <c r="N70" t="n">
-        <v>3.282056560117921</v>
+        <v>3.282056560117857</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003344000000140568</v>
+        <v>0.0002159000000006017</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.8168985802904</v>
       </c>
       <c r="F71" t="n">
-        <v>36.29722301963439</v>
+        <v>36.29722301963751</v>
       </c>
       <c r="G71" t="n">
-        <v>49.52593599088334</v>
+        <v>49.52593599088311</v>
       </c>
       <c r="H71" t="n">
-        <v>12.39082747729094</v>
+        <v>12.39082747729248</v>
       </c>
       <c r="I71" t="n">
         <v>16.08018820099398</v>
@@ -4135,16 +4135,16 @@
         <v>48.38554590561366</v>
       </c>
       <c r="K71" t="n">
-        <v>15.92665703776643</v>
+        <v>15.92665703776657</v>
       </c>
       <c r="L71" t="n">
-        <v>45.06195425507163</v>
+        <v>45.06195425507621</v>
       </c>
       <c r="M71" t="n">
-        <v>0.05020456072319999</v>
+        <v>0.05020456072319069</v>
       </c>
       <c r="N71" t="n">
-        <v>0.3103906449181312</v>
+        <v>0.3103906449176402</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003051000000198201</v>
+        <v>0.0001983000000009838</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.8298005183396</v>
       </c>
       <c r="F72" t="n">
-        <v>38.46197323849852</v>
+        <v>38.4619732385033</v>
       </c>
       <c r="G72" t="n">
-        <v>164.4751140967798</v>
+        <v>164.4751140967772</v>
       </c>
       <c r="H72" t="n">
-        <v>11.8779831766961</v>
+        <v>11.87798317669725</v>
       </c>
       <c r="I72" t="n">
         <v>12.56035812480068</v>
@@ -4187,16 +4187,16 @@
         <v>22.16891449794234</v>
       </c>
       <c r="K72" t="n">
-        <v>12.423851931793</v>
+        <v>12.42385193179342</v>
       </c>
       <c r="L72" t="n">
-        <v>22.64212847531756</v>
+        <v>22.64212847532131</v>
       </c>
       <c r="M72" t="n">
-        <v>0.04680688141889865</v>
+        <v>0.04680688141888457</v>
       </c>
       <c r="N72" t="n">
-        <v>0.4268172875431283</v>
+        <v>0.4268172875431554</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.000297399999993786</v>
+        <v>0.0001937999999981344</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.08612062994596124</v>
       </c>
       <c r="F73" t="n">
-        <v>37.73569200743812</v>
+        <v>37.73569200743835</v>
       </c>
       <c r="G73" t="n">
-        <v>43.45898995581111</v>
+        <v>43.45898995580842</v>
       </c>
       <c r="H73" t="n">
-        <v>4.990953458644976</v>
+        <v>4.990953458645357</v>
       </c>
       <c r="I73" t="n">
         <v>7.859910572602633</v>
@@ -4239,16 +4239,16 @@
         <v>45.46351225095051</v>
       </c>
       <c r="K73" t="n">
-        <v>7.715145461094762</v>
+        <v>7.715145461094775</v>
       </c>
       <c r="L73" t="n">
-        <v>39.82713356535942</v>
+        <v>39.82713356536019</v>
       </c>
       <c r="M73" t="n">
-        <v>0.04279340479614572</v>
+        <v>0.04279340479614436</v>
       </c>
       <c r="N73" t="n">
-        <v>1.360865530494588</v>
+        <v>1.360865530494368</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003901999999982309</v>
+        <v>0.0002130000000022392</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9362909001869</v>
       </c>
       <c r="F74" t="n">
-        <v>36.96636268511499</v>
+        <v>36.96636268511366</v>
       </c>
       <c r="G74" t="n">
-        <v>17.95235539459711</v>
+        <v>17.95235539459674</v>
       </c>
       <c r="H74" t="n">
-        <v>10.78904948199995</v>
+        <v>10.78904948199945</v>
       </c>
       <c r="I74" t="n">
         <v>6.377065963047959</v>
@@ -4291,16 +4291,16 @@
         <v>50.40064281793606</v>
       </c>
       <c r="K74" t="n">
-        <v>6.261036073734321</v>
+        <v>6.261036073734244</v>
       </c>
       <c r="L74" t="n">
-        <v>46.94651447464868</v>
+        <v>46.94651447464676</v>
       </c>
       <c r="M74" t="n">
-        <v>0.04421825645839365</v>
+        <v>0.04421825645839685</v>
       </c>
       <c r="N74" t="n">
-        <v>0.2690743605913863</v>
+        <v>0.2690743605915936</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.000309799999996585</v>
+        <v>0.0002993000000017787</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.884637389738</v>
       </c>
       <c r="F75" t="n">
-        <v>38.70627880048593</v>
+        <v>38.70627880049262</v>
       </c>
       <c r="G75" t="n">
-        <v>112.3906700302072</v>
+        <v>112.390670030203</v>
       </c>
       <c r="H75" t="n">
-        <v>9.094130448209325</v>
+        <v>9.094130448211315</v>
       </c>
       <c r="I75" t="n">
         <v>19.35755665061183</v>
@@ -4343,16 +4343,16 @@
         <v>34.40684012736449</v>
       </c>
       <c r="K75" t="n">
-        <v>19.29999074900691</v>
+        <v>19.29999074900725</v>
       </c>
       <c r="L75" t="n">
-        <v>33.83433188174758</v>
+        <v>33.83433188175456</v>
       </c>
       <c r="M75" t="n">
-        <v>0.03999161153244311</v>
+        <v>0.03999161153242789</v>
       </c>
       <c r="N75" t="n">
-        <v>0.2220266545716732</v>
+        <v>0.2220266545708295</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003111000000046715</v>
+        <v>0.0002117999999953213</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.8783309012385</v>
       </c>
       <c r="F76" t="n">
-        <v>36.98213325621614</v>
+        <v>36.9821332562142</v>
       </c>
       <c r="G76" t="n">
-        <v>34.83021048870381</v>
+        <v>34.83021048870333</v>
       </c>
       <c r="H76" t="n">
-        <v>11.897540798701</v>
+        <v>11.89754079870025</v>
       </c>
       <c r="I76" t="n">
         <v>11.46063555869591</v>
@@ -4395,16 +4395,16 @@
         <v>50.37958060079622</v>
       </c>
       <c r="K76" t="n">
-        <v>11.34484985440924</v>
+        <v>11.34484985440915</v>
       </c>
       <c r="L76" t="n">
-        <v>47.00337707449505</v>
+        <v>47.00337707449238</v>
       </c>
       <c r="M76" t="n">
-        <v>0.04096324984199815</v>
+        <v>0.04096324984200266</v>
       </c>
       <c r="N76" t="n">
-        <v>0.283911339497928</v>
+        <v>0.2839113394982003</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003080999999838241</v>
+        <v>0.0002086000000005583</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.1419004267952209</v>
       </c>
       <c r="F77" t="n">
-        <v>38.22522420765895</v>
+        <v>38.22522420766023</v>
       </c>
       <c r="G77" t="n">
-        <v>137.883075279363</v>
+        <v>137.883075279365</v>
       </c>
       <c r="H77" t="n">
-        <v>4.403038087117372</v>
+        <v>4.403038087117756</v>
       </c>
       <c r="I77" t="n">
         <v>8.76635558354894</v>
@@ -4447,16 +4447,16 @@
         <v>36.83621895458627</v>
       </c>
       <c r="K77" t="n">
-        <v>8.628278120469954</v>
+        <v>8.628278120470055</v>
       </c>
       <c r="L77" t="n">
-        <v>32.0522057567384</v>
+        <v>32.05220575673923</v>
       </c>
       <c r="M77" t="n">
-        <v>0.04478980492912718</v>
+        <v>0.04478980492912409</v>
       </c>
       <c r="N77" t="n">
-        <v>1.540994975763215</v>
+        <v>1.540994975763452</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003187999999738622</v>
+        <v>0.0002167000000028452</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.8119397378562</v>
       </c>
       <c r="F78" t="n">
-        <v>37.10611159158918</v>
+        <v>37.10611159159014</v>
       </c>
       <c r="G78" t="n">
-        <v>52.96874208534246</v>
+        <v>52.96874208534226</v>
       </c>
       <c r="H78" t="n">
-        <v>12.60586931729048</v>
+        <v>12.60586931729098</v>
       </c>
       <c r="I78" t="n">
         <v>16.84050940313982</v>
@@ -4499,16 +4499,16 @@
         <v>48.06403202229916</v>
       </c>
       <c r="K78" t="n">
-        <v>16.75317024820022</v>
+        <v>16.75317024820026</v>
       </c>
       <c r="L78" t="n">
-        <v>45.53242554690132</v>
+        <v>45.53242554690274</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0450192632007901</v>
+        <v>0.04501926320078758</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2273970644411915</v>
+        <v>0.2273970644410439</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003098000000250067</v>
+        <v>0.0001948999999967782</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9551110295849</v>
       </c>
       <c r="F79" t="n">
-        <v>38.22996863933529</v>
+        <v>38.22996863933124</v>
       </c>
       <c r="G79" t="n">
-        <v>165.1766655576628</v>
+        <v>165.1766655576638</v>
       </c>
       <c r="H79" t="n">
-        <v>9.936771186737783</v>
+        <v>9.936771186736463</v>
       </c>
       <c r="I79" t="n">
         <v>10.0027312132912</v>
@@ -4551,16 +4551,16 @@
         <v>25.33373033689035</v>
       </c>
       <c r="K79" t="n">
-        <v>9.870980536777777</v>
+        <v>9.870980536777395</v>
       </c>
       <c r="L79" t="n">
-        <v>24.44823742345632</v>
+        <v>24.44823742345368</v>
       </c>
       <c r="M79" t="n">
-        <v>0.04262534294636843</v>
+        <v>0.04262534294637927</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2774677547253545</v>
+        <v>0.2774677547259033</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003256999999905474</v>
+        <v>0.0002455999999995129</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9755907725551</v>
       </c>
       <c r="F80" t="n">
-        <v>37.97662078251418</v>
+        <v>37.97662078251361</v>
       </c>
       <c r="G80" t="n">
-        <v>9.059339427496246</v>
+        <v>9.059339427496081</v>
       </c>
       <c r="H80" t="n">
-        <v>8.745772192322885</v>
+        <v>8.745772192322598</v>
       </c>
       <c r="I80" t="n">
         <v>3.606923411926436</v>
@@ -4603,16 +4603,16 @@
         <v>50.73672563365681</v>
       </c>
       <c r="K80" t="n">
-        <v>3.512686348267298</v>
+        <v>3.51268634826726</v>
       </c>
       <c r="L80" t="n">
-        <v>45.81033149595589</v>
+        <v>45.81033149595496</v>
       </c>
       <c r="M80" t="n">
-        <v>0.04381607833989937</v>
+        <v>0.04381607833990101</v>
       </c>
       <c r="N80" t="n">
-        <v>0.7379041689046855</v>
+        <v>0.7379041689047832</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003297000000088701</v>
+        <v>0.0002110999999942464</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.6632717641540169</v>
       </c>
       <c r="F81" t="n">
-        <v>32.77052893099348</v>
+        <v>32.77052893099267</v>
       </c>
       <c r="G81" t="n">
-        <v>128.9839099399731</v>
+        <v>128.9839099399734</v>
       </c>
       <c r="H81" t="n">
-        <v>6.462578389216478</v>
+        <v>6.462578389216256</v>
       </c>
       <c r="I81" t="n">
         <v>17.1232117211352</v>
@@ -4655,16 +4655,16 @@
         <v>39.09485972400436</v>
       </c>
       <c r="K81" t="n">
-        <v>16.69102708058131</v>
+        <v>16.69102708058123</v>
       </c>
       <c r="L81" t="n">
-        <v>26.38488612253448</v>
+        <v>26.38488612253377</v>
       </c>
       <c r="M81" t="n">
-        <v>0.09540322582607563</v>
+        <v>0.09540322582608185</v>
       </c>
       <c r="N81" t="n">
-        <v>2.246488931805527</v>
+        <v>2.246488931805649</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003119999999796619</v>
+        <v>0.0001995000000007963</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.6200294127704</v>
       </c>
       <c r="F82" t="n">
-        <v>38.44404484112597</v>
+        <v>38.44404484111916</v>
       </c>
       <c r="G82" t="n">
-        <v>86.52581001052128</v>
+        <v>86.5258100105241</v>
       </c>
       <c r="H82" t="n">
-        <v>11.62846150890832</v>
+        <v>11.62846150890548</v>
       </c>
       <c r="I82" t="n">
         <v>22.11552919085654</v>
@@ -4707,16 +4707,16 @@
         <v>39.33727404337365</v>
       </c>
       <c r="K82" t="n">
-        <v>22.03677195168479</v>
+        <v>22.03677195168452</v>
       </c>
       <c r="L82" t="n">
-        <v>39.56277111550813</v>
+        <v>39.56277111549976</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0551337618952609</v>
+        <v>0.05513376189528226</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2664144908804048</v>
+        <v>0.2664144908794202</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003510999999889464</v>
+        <v>0.0001967999999976655</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.2719800684437436</v>
       </c>
       <c r="F83" t="n">
-        <v>37.13708548572408</v>
+        <v>37.13708548572588</v>
       </c>
       <c r="G83" t="n">
-        <v>93.11741796905955</v>
+        <v>93.11741796905639</v>
       </c>
       <c r="H83" t="n">
-        <v>4.92191417496531</v>
+        <v>4.92191417496571</v>
       </c>
       <c r="I83" t="n">
         <v>12.10179104400886</v>
@@ -4759,16 +4759,16 @@
         <v>42.05119175911687</v>
       </c>
       <c r="K83" t="n">
-        <v>11.96000663377391</v>
+        <v>11.96000663377401</v>
       </c>
       <c r="L83" t="n">
-        <v>34.95795644144464</v>
+        <v>34.9579564414468</v>
       </c>
       <c r="M83" t="n">
-        <v>0.04867244613966341</v>
+        <v>0.04867244613965792</v>
       </c>
       <c r="N83" t="n">
-        <v>1.809663352122179</v>
+        <v>1.809663352121845</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0006756999999879554</v>
+        <v>0.0002113000000036891</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.8318699194488</v>
       </c>
       <c r="F84" t="n">
-        <v>36.88451534647437</v>
+        <v>36.88451534647537</v>
       </c>
       <c r="G84" t="n">
-        <v>45.29716896317462</v>
+        <v>45.29716896317662</v>
       </c>
       <c r="H84" t="n">
-        <v>10.77330786576506</v>
+        <v>10.77330786576493</v>
       </c>
       <c r="I84" t="n">
         <v>13.43287767644303</v>
@@ -4811,16 +4811,16 @@
         <v>46.97805561868334</v>
       </c>
       <c r="K84" t="n">
-        <v>13.30080355415053</v>
+        <v>13.30080355415061</v>
       </c>
       <c r="L84" t="n">
-        <v>44.55712952471288</v>
+        <v>44.55712952471347</v>
       </c>
       <c r="M84" t="n">
-        <v>0.04961811593840938</v>
+        <v>0.04961811593840784</v>
       </c>
       <c r="N84" t="n">
-        <v>0.2490166415975541</v>
+        <v>0.2490166415974368</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003083000000003722</v>
+        <v>0.0002350000000035379</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.8301374227926</v>
       </c>
       <c r="F85" t="n">
-        <v>36.67915885312831</v>
+        <v>36.67915885312197</v>
       </c>
       <c r="G85" t="n">
-        <v>42.78672265936841</v>
+        <v>42.78672265937005</v>
       </c>
       <c r="H85" t="n">
-        <v>11.11162240700351</v>
+        <v>11.11162240700016</v>
       </c>
       <c r="I85" t="n">
         <v>13.12799389676822</v>
@@ -4863,16 +4863,16 @@
         <v>47.93179806456282</v>
       </c>
       <c r="K85" t="n">
-        <v>12.99493080533998</v>
+        <v>12.99493080533968</v>
       </c>
       <c r="L85" t="n">
-        <v>45.00071946163192</v>
+        <v>45.00071946162206</v>
       </c>
       <c r="M85" t="n">
-        <v>0.04637808091001316</v>
+        <v>0.0463780809100321</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2431406973977012</v>
+        <v>0.2431406973988216</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0002958000000035099</v>
+        <v>0.0002184999999954584</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.02632244039511911</v>
       </c>
       <c r="F86" t="n">
-        <v>37.59364527518559</v>
+        <v>37.59364527518541</v>
       </c>
       <c r="G86" t="n">
-        <v>7.047961778359372</v>
+        <v>7.047961778359118</v>
       </c>
       <c r="H86" t="n">
-        <v>6.505414105042245</v>
+        <v>6.505414105042538</v>
       </c>
       <c r="I86" t="n">
         <v>3.043806361309816</v>
@@ -4918,13 +4918,13 @@
         <v>2.874904715698123</v>
       </c>
       <c r="L86" t="n">
-        <v>42.77862850209872</v>
+        <v>42.7786285020989</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0485167433210581</v>
+        <v>0.04851674332105802</v>
       </c>
       <c r="N86" t="n">
-        <v>0.5144379046343415</v>
+        <v>0.514437904634243</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003198999999938223</v>
+        <v>0.00019890000000089</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9646298557842</v>
       </c>
       <c r="F87" t="n">
-        <v>37.63329159295267</v>
+        <v>37.63329159293613</v>
       </c>
       <c r="G87" t="n">
-        <v>111.1109251604261</v>
+        <v>111.1109251604386</v>
       </c>
       <c r="H87" t="n">
-        <v>8.421439365242604</v>
+        <v>8.421439365237838</v>
       </c>
       <c r="I87" t="n">
         <v>18.76061115182669</v>
@@ -4967,16 +4967,16 @@
         <v>35.21970397644842</v>
       </c>
       <c r="K87" t="n">
-        <v>18.62483532113998</v>
+        <v>18.62483532113909</v>
       </c>
       <c r="L87" t="n">
-        <v>33.11112198785722</v>
+        <v>33.1111219878396</v>
       </c>
       <c r="M87" t="n">
-        <v>0.04432198168724653</v>
+        <v>0.04432198168728996</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3359422506652366</v>
+        <v>0.3359422506672886</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003317000000038206</v>
+        <v>0.0001946000000003778</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.1192571437934559</v>
       </c>
       <c r="F88" t="n">
-        <v>37.90330002405356</v>
+        <v>37.90330002405491</v>
       </c>
       <c r="G88" t="n">
-        <v>67.20652703010543</v>
+        <v>67.20652703011022</v>
       </c>
       <c r="H88" t="n">
-        <v>2.715514596039145</v>
+        <v>2.715514596039221</v>
       </c>
       <c r="I88" t="n">
         <v>6.791947165725001</v>
@@ -5019,16 +5019,16 @@
         <v>42.97845363301155</v>
       </c>
       <c r="K88" t="n">
-        <v>6.638043024740101</v>
+        <v>6.63804302474019</v>
       </c>
       <c r="L88" t="n">
-        <v>36.79594984442427</v>
+        <v>36.79594984442542</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0452870569746962</v>
+        <v>0.04528705697469321</v>
       </c>
       <c r="N88" t="n">
-        <v>2.308986078017808</v>
+        <v>2.308986078017828</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.000303300000012996</v>
+        <v>0.0001947000000015464</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.9255248958294</v>
       </c>
       <c r="F89" t="n">
-        <v>37.83764410034105</v>
+        <v>37.83764410033174</v>
       </c>
       <c r="G89" t="n">
-        <v>117.7824524947728</v>
+        <v>117.782452494776</v>
       </c>
       <c r="H89" t="n">
-        <v>13.55922497716428</v>
+        <v>13.55922497716025</v>
       </c>
       <c r="I89" t="n">
         <v>29.4243494329187</v>
@@ -5071,16 +5071,16 @@
         <v>33.52902134866883</v>
       </c>
       <c r="K89" t="n">
-        <v>29.31180070512508</v>
+        <v>29.31180070512466</v>
       </c>
       <c r="L89" t="n">
-        <v>31.69500924320167</v>
+        <v>31.69500924319252</v>
       </c>
       <c r="M89" t="n">
-        <v>0.04438812433662596</v>
+        <v>0.04438812433664981</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2834738813462275</v>
+        <v>0.2834738813473981</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002990000000124837</v>
+        <v>0.000235799999998676</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9786231391697</v>
       </c>
       <c r="F90" t="n">
-        <v>38.16215402891507</v>
+        <v>38.16215402891492</v>
       </c>
       <c r="G90" t="n">
-        <v>117.1084667209324</v>
+        <v>117.1084667209348</v>
       </c>
       <c r="H90" t="n">
-        <v>8.562649257395064</v>
+        <v>8.562649257395092</v>
       </c>
       <c r="I90" t="n">
         <v>18.57224489984314</v>
@@ -5123,16 +5123,16 @@
         <v>34.2946546952799</v>
       </c>
       <c r="K90" t="n">
-        <v>18.45957746941972</v>
+        <v>18.45957746941975</v>
       </c>
       <c r="L90" t="n">
-        <v>32.53778953420862</v>
+        <v>32.53778953420806</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04303911777623282</v>
+        <v>0.0430391177762336</v>
       </c>
       <c r="N90" t="n">
-        <v>0.2712260894309619</v>
+        <v>0.271226089431034</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.00033450000000812</v>
+        <v>0.0002045000000023833</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.3387460053094221</v>
       </c>
       <c r="F91" t="n">
-        <v>36.3618576535693</v>
+        <v>36.36185765356645</v>
       </c>
       <c r="G91" t="n">
-        <v>127.105629659616</v>
+        <v>127.1056296596252</v>
       </c>
       <c r="H91" t="n">
-        <v>5.457161334012691</v>
+        <v>5.457161334012456</v>
       </c>
       <c r="I91" t="n">
         <v>12.74316145486036</v>
@@ -5175,16 +5175,16 @@
         <v>38.33487342784704</v>
       </c>
       <c r="K91" t="n">
-        <v>12.50529038103376</v>
+        <v>12.50529038103358</v>
       </c>
       <c r="L91" t="n">
-        <v>30.51819564799962</v>
+        <v>30.51819564799598</v>
       </c>
       <c r="M91" t="n">
-        <v>0.05364831173860434</v>
+        <v>0.05364831173861571</v>
       </c>
       <c r="N91" t="n">
-        <v>1.581191821866648</v>
+        <v>1.581191821867182</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002959999999916363</v>
+        <v>0.0001991000000032273</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.04489733363986508</v>
       </c>
       <c r="F92" t="n">
-        <v>37.3898954147819</v>
+        <v>37.38989541478153</v>
       </c>
       <c r="G92" t="n">
-        <v>34.64256950817619</v>
+        <v>34.64256950817182</v>
       </c>
       <c r="H92" t="n">
-        <v>3.119143431153229</v>
+        <v>3.119143431153576</v>
       </c>
       <c r="I92" t="n">
         <v>5.21318424796729</v>
@@ -5227,16 +5227,16 @@
         <v>42.76553142273538</v>
       </c>
       <c r="K92" t="n">
-        <v>5.023678540587652</v>
+        <v>5.02367854058764</v>
       </c>
       <c r="L92" t="n">
-        <v>37.99888708281146</v>
+        <v>37.99888708281161</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04671713152625463</v>
+        <v>0.04671713152625494</v>
       </c>
       <c r="N92" t="n">
-        <v>1.316535470238322</v>
+        <v>1.316535470238037</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003102000000012595</v>
+        <v>0.0001954999999966844</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.1212242035469481</v>
       </c>
       <c r="F93" t="n">
-        <v>37.32763026206482</v>
+        <v>37.32763026206389</v>
       </c>
       <c r="G93" t="n">
-        <v>51.68057485241925</v>
+        <v>51.68057485242931</v>
       </c>
       <c r="H93" t="n">
-        <v>4.097036935382565</v>
+        <v>4.097036935381633</v>
       </c>
       <c r="I93" t="n">
         <v>7.863442946019621</v>
@@ -5279,16 +5279,16 @@
         <v>44.53239056119353</v>
       </c>
       <c r="K93" t="n">
-        <v>7.702098275452821</v>
+        <v>7.70209827545277</v>
       </c>
       <c r="L93" t="n">
-        <v>38.10335862415273</v>
+        <v>38.10335862415041</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04264980157835262</v>
+        <v>0.04264980157835634</v>
       </c>
       <c r="N93" t="n">
-        <v>1.694320522955135</v>
+        <v>1.694320522955824</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0008541999999920336</v>
+        <v>0.0001920999999995843</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9539401516435</v>
       </c>
       <c r="F94" t="n">
-        <v>38.36523262780393</v>
+        <v>38.36523262780344</v>
       </c>
       <c r="G94" t="n">
-        <v>159.9640372719355</v>
+        <v>159.9640372719352</v>
       </c>
       <c r="H94" t="n">
-        <v>11.98347800188082</v>
+        <v>11.98347800188052</v>
       </c>
       <c r="I94" t="n">
         <v>15.35104641020007</v>
@@ -5331,16 +5331,16 @@
         <v>24.24394169017284</v>
       </c>
       <c r="K94" t="n">
-        <v>15.25804225534906</v>
+        <v>15.258042255349</v>
       </c>
       <c r="L94" t="n">
-        <v>23.05156296763377</v>
+        <v>23.05156296763364</v>
       </c>
       <c r="M94" t="n">
-        <v>0.03826688847778448</v>
+        <v>0.03826688847778568</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2140456600314727</v>
+        <v>0.2140456600315485</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003192000000069584</v>
+        <v>0.0002467999999993253</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.6739603839313</v>
       </c>
       <c r="F95" t="n">
-        <v>38.57799893823287</v>
+        <v>38.57799893823029</v>
       </c>
       <c r="G95" t="n">
-        <v>100.9351991186328</v>
+        <v>100.9351991186319</v>
       </c>
       <c r="H95" t="n">
-        <v>10.74760554596996</v>
+        <v>10.74760554596907</v>
       </c>
       <c r="I95" t="n">
         <v>22.21315077475493</v>
@@ -5383,16 +5383,16 @@
         <v>35.75139630592476</v>
       </c>
       <c r="K95" t="n">
-        <v>22.10743930715076</v>
+        <v>22.10743930715059</v>
       </c>
       <c r="L95" t="n">
-        <v>36.17396202363552</v>
+        <v>36.17396202363311</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04823048059750872</v>
+        <v>0.04823048059751536</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2840623939405861</v>
+        <v>0.2840623939407425</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003114000000152828</v>
+        <v>0.0002114999999989209</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.8513093568973</v>
       </c>
       <c r="F96" t="n">
-        <v>38.12542619610712</v>
+        <v>38.12542619610851</v>
       </c>
       <c r="G96" t="n">
-        <v>125.5055021806483</v>
+        <v>125.5055021806451</v>
       </c>
       <c r="H96" t="n">
-        <v>9.523988472897125</v>
+        <v>9.523988472897399</v>
       </c>
       <c r="I96" t="n">
         <v>19.90993072089658</v>
@@ -5435,16 +5435,16 @@
         <v>31.41112353494288</v>
       </c>
       <c r="K96" t="n">
-        <v>19.76646648328764</v>
+        <v>19.76646648328766</v>
       </c>
       <c r="L96" t="n">
-        <v>30.67895066708471</v>
+        <v>30.67895066708655</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04497824390257413</v>
+        <v>0.04497824390257028</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3596666429145654</v>
+        <v>0.3596666429144749</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003150999999945725</v>
+        <v>0.0001981999999998152</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.1328577799104965</v>
       </c>
       <c r="F97" t="n">
-        <v>37.98552260332954</v>
+        <v>37.98552260332964</v>
       </c>
       <c r="G97" t="n">
-        <v>68.17464373264609</v>
+        <v>68.17464373263805</v>
       </c>
       <c r="H97" t="n">
-        <v>2.951700304588342</v>
+        <v>2.951700304588587</v>
       </c>
       <c r="I97" t="n">
         <v>7.230991953515353</v>
@@ -5487,16 +5487,16 @@
         <v>42.49750700264286</v>
       </c>
       <c r="K97" t="n">
-        <v>7.064955410902914</v>
+        <v>7.064955410902926</v>
       </c>
       <c r="L97" t="n">
-        <v>36.96658744577722</v>
+        <v>36.96658744577789</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0425970304480398</v>
+        <v>0.04259703044803897</v>
       </c>
       <c r="N97" t="n">
-        <v>2.037767655962094</v>
+        <v>2.037767655961751</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003310000000169566</v>
+        <v>0.000194299999996872</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9860304450468</v>
       </c>
       <c r="F98" t="n">
-        <v>36.59281208764876</v>
+        <v>36.59281208764567</v>
       </c>
       <c r="G98" t="n">
-        <v>38.89909952797929</v>
+        <v>38.89909952797813</v>
       </c>
       <c r="H98" t="n">
-        <v>12.14923429085283</v>
+        <v>12.14923429085178</v>
       </c>
       <c r="I98" t="n">
         <v>12.95227042657602</v>
@@ -5539,16 +5539,16 @@
         <v>51.74105893626461</v>
       </c>
       <c r="K98" t="n">
-        <v>12.82334560503809</v>
+        <v>12.82334560503793</v>
       </c>
       <c r="L98" t="n">
-        <v>46.48196913334044</v>
+        <v>46.48196913333644</v>
       </c>
       <c r="M98" t="n">
-        <v>0.04292854314250814</v>
+        <v>0.04292854314251516</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5251108377120225</v>
+        <v>0.5251108377123455</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002999999999815373</v>
+        <v>0.0001931999999982281</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.3502375502584012</v>
       </c>
       <c r="F99" t="n">
-        <v>34.86638287414281</v>
+        <v>34.86638287415436</v>
       </c>
       <c r="G99" t="n">
-        <v>157.5892598561512</v>
+        <v>157.5892598561447</v>
       </c>
       <c r="H99" t="n">
-        <v>13.49238905051642</v>
+        <v>13.4923890505206</v>
       </c>
       <c r="I99" t="n">
         <v>23.90850916660207</v>
@@ -5591,16 +5591,16 @@
         <v>24.13895389620888</v>
       </c>
       <c r="K99" t="n">
-        <v>23.61732793005848</v>
+        <v>23.61732793005946</v>
       </c>
       <c r="L99" t="n">
-        <v>18.86109936749465</v>
+        <v>18.86109936750309</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05341434340149561</v>
+        <v>0.05341434340143743</v>
       </c>
       <c r="N99" t="n">
-        <v>0.8071032398887878</v>
+        <v>0.8071032398870801</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.000303300000012996</v>
+        <v>0.0002382999999994695</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.9052565837468</v>
       </c>
       <c r="F100" t="n">
-        <v>37.53656850545912</v>
+        <v>37.53656850546123</v>
       </c>
       <c r="G100" t="n">
-        <v>130.4098547443118</v>
+        <v>130.4098547443129</v>
       </c>
       <c r="H100" t="n">
-        <v>8.986113839876451</v>
+        <v>8.986113839877204</v>
       </c>
       <c r="I100" t="n">
         <v>18.60137800648538</v>
@@ -5643,16 +5643,16 @@
         <v>31.16710803662699</v>
       </c>
       <c r="K100" t="n">
-        <v>18.45185332873379</v>
+        <v>18.45185332873399</v>
       </c>
       <c r="L100" t="n">
-        <v>29.44354103130573</v>
+        <v>29.44354103130721</v>
       </c>
       <c r="M100" t="n">
-        <v>0.04899469944657775</v>
+        <v>0.04899469944657212</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3735947820233562</v>
+        <v>0.3735947820230084</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003317999999978838</v>
+        <v>0.0002068999999949028</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.0284717685403868</v>
       </c>
       <c r="F101" t="n">
-        <v>37.58852422014332</v>
+        <v>37.58852422014306</v>
       </c>
       <c r="G101" t="n">
-        <v>124.7779875895838</v>
+        <v>124.7779875895833</v>
       </c>
       <c r="H101" t="n">
-        <v>8.298865003712248</v>
+        <v>8.298865003712141</v>
       </c>
       <c r="I101" t="n">
         <v>17.85727084796145</v>
@@ -5695,16 +5695,16 @@
         <v>33.52305968980325</v>
       </c>
       <c r="K101" t="n">
-        <v>17.73664649781145</v>
+        <v>17.73664649781141</v>
       </c>
       <c r="L101" t="n">
-        <v>30.75358490848701</v>
+        <v>30.75358490848688</v>
       </c>
       <c r="M101" t="n">
-        <v>0.04207091538433247</v>
+        <v>0.04207091538433291</v>
       </c>
       <c r="N101" t="n">
-        <v>0.4195672849432189</v>
+        <v>0.4195672849432568</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.000294799999977613</v>
+        <v>0.0002028000000038332</v>
       </c>
     </row>
   </sheetData>
